--- a/etual.xlsx
+++ b/etual.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kelin\PycharmProjects\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{354837F8-218C-4E5F-9A0B-81E82F7A30D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5B949D5-C351-4C87-964C-B2F6F120F670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5475" yWindow="900" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Мастера" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,12 @@
     <sheet name="Производство" sheetId="3" r:id="rId3"/>
     <sheet name="Форма_отчета" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="58">
   <si>
     <t>№</t>
   </si>
@@ -40,15 +40,63 @@
     <t>Должности</t>
   </si>
   <si>
+    <t>Татьяна Деткова</t>
+  </si>
+  <si>
     <t>Косметик</t>
   </si>
   <si>
+    <t>Ольга Коломеец</t>
+  </si>
+  <si>
     <t>Мастер НС</t>
   </si>
   <si>
+    <t xml:space="preserve">Наталья Литавор </t>
+  </si>
+  <si>
     <t>Массажист</t>
   </si>
   <si>
+    <t>Екатерина Неверовская</t>
+  </si>
+  <si>
+    <t>Настя Быстрицкая</t>
+  </si>
+  <si>
+    <t>Алеся Антонович</t>
+  </si>
+  <si>
+    <t>Татьяна Кирьянова</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Анна Ладо </t>
+  </si>
+  <si>
+    <t>Елена Тананаева</t>
+  </si>
+  <si>
+    <t>Олеся Симако</t>
+  </si>
+  <si>
+    <t>Татьяна Санюк</t>
+  </si>
+  <si>
+    <t>Ольга Пивовар</t>
+  </si>
+  <si>
+    <t>Медведева Екатерина</t>
+  </si>
+  <si>
+    <t>Ольга Автушко</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Буранок Светлана </t>
+  </si>
+  <si>
+    <t>Татьяна Кузнецова</t>
+  </si>
+  <si>
     <t>Группы</t>
   </si>
   <si>
@@ -133,61 +181,22 @@
     <t>fwa</t>
   </si>
   <si>
+    <t>Отчет</t>
+  </si>
+  <si>
+    <t>Кабинет:</t>
+  </si>
+  <si>
     <t>Мастер:</t>
   </si>
   <si>
-    <t>Кабинет:</t>
-  </si>
-  <si>
-    <t>Отчет</t>
-  </si>
-  <si>
-    <t>Татьяна Деткова</t>
-  </si>
-  <si>
-    <t>Ольга Коломеец</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Наталья Литавор </t>
-  </si>
-  <si>
-    <t>Екатерина Неверовская</t>
-  </si>
-  <si>
-    <t>Настя Быстрицкая</t>
-  </si>
-  <si>
-    <t>Алеся Антонович</t>
-  </si>
-  <si>
-    <t>Татьяна Кирьянова</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Анна Ладо </t>
-  </si>
-  <si>
-    <t>Елена Тананаева</t>
-  </si>
-  <si>
-    <t>Олеся Симако</t>
-  </si>
-  <si>
-    <t>Татьяна Санюк</t>
-  </si>
-  <si>
-    <t>Ольга Пивовар</t>
-  </si>
-  <si>
-    <t>Медведева Екатерина</t>
-  </si>
-  <si>
-    <t>Ольга Автушко</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Буранок Светлана </t>
-  </si>
-  <si>
-    <t>Татьяна Кузнецова</t>
+    <t>Средства:</t>
+  </si>
+  <si>
+    <t>Вес</t>
+  </si>
+  <si>
+    <t>Себестоимость</t>
   </si>
 </sst>
 </file>
@@ -551,7 +560,7 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -586,16 +595,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -603,16 +612,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -620,16 +629,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
       <c r="I4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -637,7 +646,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -645,7 +654,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -653,7 +662,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -661,7 +670,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -669,7 +678,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -677,7 +686,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -685,7 +694,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -693,7 +702,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -701,7 +710,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -709,7 +718,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -717,7 +726,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -725,7 +734,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -733,7 +742,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -741,7 +750,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -751,7 +760,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -775,10 +784,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -786,10 +795,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -797,10 +806,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -808,10 +817,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -819,10 +828,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -836,7 +845,7 @@
   <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -862,43 +871,43 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E1" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="F1" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="G1" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="H1" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="I1" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="J1" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="K1" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="L1" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="M1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="N1" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -906,13 +915,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="E2">
         <v>500</v>
@@ -930,10 +939,10 @@
         <v>2</v>
       </c>
       <c r="J2">
-        <v>321</v>
+        <v>200</v>
       </c>
       <c r="K2">
-        <v>352</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>332</v>
@@ -950,13 +959,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="E3">
         <v>250</v>
@@ -974,10 +983,10 @@
         <v>3</v>
       </c>
       <c r="J3">
-        <v>321</v>
+        <v>200</v>
       </c>
       <c r="K3">
-        <v>654</v>
+        <v>2</v>
       </c>
       <c r="L3">
         <v>552</v>
@@ -994,13 +1003,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="E4">
         <v>500</v>
@@ -1018,10 +1027,10 @@
         <v>16</v>
       </c>
       <c r="J4">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="K4">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="L4">
         <v>112</v>
@@ -1038,10 +1047,10 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="E5">
         <v>220</v>
@@ -1055,8 +1064,8 @@
       <c r="I5">
         <v>100</v>
       </c>
-      <c r="J5" s="1">
-        <v>54</v>
+      <c r="J5">
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -1064,13 +1073,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="E6">
         <v>123</v>
@@ -1081,8 +1090,8 @@
       <c r="G6">
         <v>123</v>
       </c>
-      <c r="J6" s="1">
-        <v>3421</v>
+      <c r="J6">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -1094,33 +1103,76 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Лист5"/>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>54</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/etual.xlsx
+++ b/etual.xlsx
@@ -8,22 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kelin\PycharmProjects\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5B949D5-C351-4C87-964C-B2F6F120F670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84F8FEFE-427A-4BE1-A223-6743F5A69484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5475" yWindow="900" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Мастера" sheetId="1" r:id="rId1"/>
     <sheet name="Таблицы" sheetId="2" r:id="rId2"/>
     <sheet name="Производство" sheetId="3" r:id="rId3"/>
-    <sheet name="Форма_отчета" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="48">
   <si>
     <t>№</t>
   </si>
@@ -106,27 +105,15 @@
     <t>Маски</t>
   </si>
   <si>
-    <t>Biologic</t>
-  </si>
-  <si>
     <t>Молочко</t>
   </si>
   <si>
-    <t>CellCosmet</t>
-  </si>
-  <si>
     <t>Лаки</t>
   </si>
   <si>
-    <t>Thalasso</t>
-  </si>
-  <si>
     <t>Алкоголь</t>
   </si>
   <si>
-    <t>Аквадив</t>
-  </si>
-  <si>
     <t>Группа</t>
   </si>
   <si>
@@ -179,24 +166,6 @@
   </si>
   <si>
     <t>fwa</t>
-  </si>
-  <si>
-    <t>Отчет</t>
-  </si>
-  <si>
-    <t>Кабинет:</t>
-  </si>
-  <si>
-    <t>Мастер:</t>
-  </si>
-  <si>
-    <t>Средства:</t>
-  </si>
-  <si>
-    <t>Вес</t>
-  </si>
-  <si>
-    <t>Себестоимость</t>
   </si>
 </sst>
 </file>
@@ -561,7 +530,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -770,7 +739,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -797,42 +766,34 @@
       <c r="B2" t="s">
         <v>26</v>
       </c>
-      <c r="D2" t="s">
-        <v>27</v>
-      </c>
+      <c r="D2"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" t="s">
-        <v>29</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="D3"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" t="s">
-        <v>31</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="D4"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" t="s">
-        <v>33</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="D5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -844,8 +805,8 @@
   <sheetPr codeName="Лист4"/>
   <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -871,43 +832,43 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" t="s">
         <v>34</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>35</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
         <v>36</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
         <v>37</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>38</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
         <v>39</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
         <v>40</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
         <v>41</v>
       </c>
-      <c r="J1" t="s">
+      <c r="N1" t="s">
         <v>42</v>
-      </c>
-      <c r="K1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -915,13 +876,11 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" t="s">
         <v>27</v>
       </c>
+      <c r="C2"/>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E2">
         <v>500</v>
@@ -939,19 +898,19 @@
         <v>2</v>
       </c>
       <c r="J2">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K2">
         <v>2</v>
       </c>
       <c r="L2">
-        <v>332</v>
+        <v>125</v>
       </c>
       <c r="M2">
-        <v>332</v>
+        <v>70</v>
       </c>
       <c r="N2">
-        <v>332</v>
+        <v>300</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -961,11 +920,9 @@
       <c r="B3" t="s">
         <v>26</v>
       </c>
-      <c r="C3" t="s">
-        <v>29</v>
-      </c>
+      <c r="C3"/>
       <c r="D3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E3">
         <v>250</v>
@@ -983,19 +940,19 @@
         <v>3</v>
       </c>
       <c r="J3">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>552</v>
+        <v>25</v>
       </c>
       <c r="M3">
-        <v>111</v>
+        <v>50</v>
       </c>
       <c r="N3">
-        <v>441</v>
+        <v>400</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -1003,13 +960,11 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" t="s">
-        <v>31</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C4"/>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E4">
         <v>500</v>
@@ -1027,16 +982,16 @@
         <v>16</v>
       </c>
       <c r="J4">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="K4">
         <v>2</v>
       </c>
       <c r="L4">
-        <v>112</v>
+        <v>50</v>
       </c>
       <c r="M4">
-        <v>112</v>
+        <v>25</v>
       </c>
       <c r="N4">
         <v>123</v>
@@ -1046,11 +1001,9 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
-        <v>29</v>
-      </c>
+      <c r="C5"/>
       <c r="D5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E5">
         <v>220</v>
@@ -1065,7 +1018,7 @@
         <v>100</v>
       </c>
       <c r="J5">
-        <v>200</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -1073,13 +1026,11 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" t="s">
-        <v>29</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C6"/>
       <c r="D6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E6">
         <v>123</v>
@@ -1097,82 +1048,17 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr codeName="Лист5"/>
-  <dimension ref="A1:E6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.42578125" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6">
-        <v>23</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5A4F7702-355E-4496-A63D-A9026C428FE6}">
+          <x14:formula1>
+            <xm:f>Таблицы!$D$2:$D$1048576</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2:C1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/etual.xlsx
+++ b/etual.xlsx
@@ -8,21 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kelin\PycharmProjects\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84F8FEFE-427A-4BE1-A223-6743F5A69484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83A5D8E4-9347-4D43-BA9F-A3BCE0B0B0E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12705" yWindow="0" windowWidth="15285" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Мастера" sheetId="1" r:id="rId1"/>
     <sheet name="Таблицы" sheetId="2" r:id="rId2"/>
     <sheet name="Производство" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="253">
   <si>
     <t>№</t>
   </si>
@@ -153,26 +153,641 @@
     <t>Маникюрный Спа</t>
   </si>
   <si>
-    <t>Visolostin</t>
-  </si>
-  <si>
-    <t>Antistress</t>
-  </si>
-  <si>
-    <t>Model</t>
-  </si>
-  <si>
-    <t>Hiller</t>
-  </si>
-  <si>
-    <t>fwa</t>
+    <t>AROSHA Италия</t>
+  </si>
+  <si>
+    <t>Восстанавливающий крем глубокого действия FIRMING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Интенсивный крем для коррекции фигуры Lipolitic </t>
+  </si>
+  <si>
+    <t>ЛОСЬОН ДЛЯ СНЯТИЯ МАКИЯЖА ГЛАЗ SOLUTION DEMAQUILLANTE POUR LES YEU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОКСИГЕНИРУЮЩЕЕ ОЧИЩАЮЩЕЕ МОЛОЧКО LAIT VIP O2 </t>
+  </si>
+  <si>
+    <t>ОЧИЩАЮЩИЙ ЛОСЬОН ДЛЯ ЧУВСТВИТЕЛЬНОЙ КОЖИ EAU MICELLAIRE BIOSENSIBLE</t>
+  </si>
+  <si>
+    <t>НЕЖНЫЙ ЭКСФОЛИРУЮЩИЙ ЛОСЬОН ДЛЯ ЛИЦА LOTION P50W</t>
+  </si>
+  <si>
+    <t>ОКСИГЕНИРУЮЩАЯ МАСКА ДЛЯ ЛИЦА MASQUE VIP O2</t>
+  </si>
+  <si>
+    <t>Увлажняющая маска для лица длительного действия MASQUE VISOLASTINE+</t>
+  </si>
+  <si>
+    <t>РАЗГЛАЖИВАЮЩАЯ И СНИМАЮЩАЯ ПРИПУХЛОСТИ МАСКА ДЛЯ ЗОНЫ ВОКРУГ ГЛАЗ PATCHS DEFATIGANTS 1 шт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Маска для сияния и блеска лица MASQUE PIGM 400 10 SACHETS DE 18 мл  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТОНИЗИРУЮЩАЯ СЫВОРОТКА ДЛЯ ЛИЦА, ШЕИ, ДЕКОЛЬТЕ AMNIOTIQUE E. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">МУЛЬТИФУНКЦИОНАЛЬНЫЙ ФЛЮИД ДЛЯ ЛИЦА L'EAUXYGENANTE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">УВЛАЖНЯЮЩИЙ КРЕМ ДЛЯ ЛИЦА С ТЕРМАЛЬНЫМИ ВОДОРОСЛЯМИ CREME HYDRAVITS </t>
+  </si>
+  <si>
+    <t>Высокотолерантный крем для зоны вокруг глаз Creme contour des YEUX BIOSENSIBLE</t>
+  </si>
+  <si>
+    <t>861-401Т Клеточный крем для кожи вокруг глаз</t>
+  </si>
+  <si>
+    <t>Маска д/интенс.ухода за кожей ног 1 пара</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Маска д/интенс.ухода за кожей рук 1 пара	</t>
+  </si>
+  <si>
+    <t>Лосьон для рук и тела Wildflower Chamomille</t>
+  </si>
+  <si>
+    <t xml:space="preserve">590204 Скраб Мягкий 365 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">762606 Маска с розой 10 шт в уп </t>
+  </si>
+  <si>
+    <t>762696 Балансирующий гель для демакияжа</t>
+  </si>
+  <si>
+    <t xml:space="preserve">762702 Балансирующий очищающий лосьон </t>
+  </si>
+  <si>
+    <t>752086 Скраб-эксфолиант для тела</t>
+  </si>
+  <si>
+    <t xml:space="preserve">912190 PF Крем массажный для тела АЛЬГА О. П. </t>
+  </si>
+  <si>
+    <t>912190 PF Крем массажный для тела АЛЬГА Косм спа</t>
+  </si>
+  <si>
+    <t>422019 Программа упругости для лица Lift</t>
+  </si>
+  <si>
+    <t xml:space="preserve">453931 Серум для  упругости шеи | Face and Neck Serum Vital Care 8 флак по 3мл </t>
+  </si>
+  <si>
+    <t>454010/1 Набор Lift Summum | Lift Summum Gommage Dermabrasion/Exfoianting +Modelage Lift Summum+Combleur Lift Summum+Masque Lift Summum Visage 1 процедур</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Масло массажное AROMASOUL OIL COMFORT ZONE, 280 </t>
+  </si>
+  <si>
+    <t>753091 SPERIENCE Обертывание Лавандовая коллекция, 1000</t>
+  </si>
+  <si>
+    <t>753092 SPERIENCE Массажное масло Лавандовая коллекция, 500</t>
+  </si>
+  <si>
+    <t>752338 Морская вода для увлажнения кожи</t>
+  </si>
+  <si>
+    <t>753076 Масло Массажное SPA SPIRIENCE, 500</t>
+  </si>
+  <si>
+    <t>753090 SPERIENCE Скраб Лавандовая коллекция, 500</t>
+  </si>
+  <si>
+    <t>8399Р Маска альгинатная с экстрактом Гойи анти-оксидант порошкообразная 30 г</t>
+  </si>
+  <si>
+    <t>TB932P Воск для тела моделирующий</t>
+  </si>
+  <si>
+    <t>TB905P Воск-гоммаж очищающий Шелковистый</t>
+  </si>
+  <si>
+    <t>ТВ558Р Концентрат (гель) Талассо Кальциум</t>
+  </si>
+  <si>
+    <t>TB515P Флюид - гоммаж с кристалами морской соли Солевой Пилинг</t>
+  </si>
+  <si>
+    <t>TB503P Молочко Увлажняющее для тела</t>
+  </si>
+  <si>
+    <t>TB550P Сыворотка Катализатор Похудение с экстрактом Ламинарии</t>
+  </si>
+  <si>
+    <t>TB554P/500 Концентрат (масло) морского магния Талассо Магнезиум</t>
+  </si>
+  <si>
+    <t>ТВ559Р Маска (обертывание) Талассо Кальциум</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТВ539Р Маска (обертывание) Три водоросли </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТВ556Р Маска (обертывание) Талассо Магнезиум </t>
+  </si>
+  <si>
+    <t>TB527P Моделирующий крем для тела</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KT15014 Массажный крем с Морским Олигоэлементами </t>
+  </si>
+  <si>
+    <t>КТ15046 Водный лосьон Aquatic для лица</t>
+  </si>
+  <si>
+    <t>КТ17007 Арктический Снежный скраб с хлопьями морской соли</t>
+  </si>
+  <si>
+    <t>KT17002 Матирующий очищающий лосьон для лица</t>
+  </si>
+  <si>
+    <t>KT15043 Мягкое очищающее молочко для лица</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KT15039 Очищающее средство для снятия водостойкого макияжа с глаз и губ </t>
+  </si>
+  <si>
+    <t>KT16026 Энзимный скраб с Кристаллами Морской  Соли</t>
+  </si>
+  <si>
+    <t>KT13001 Крем для лица интенсивный антивозрастной Великолепие</t>
+  </si>
+  <si>
+    <t>KT15012 Интенсивно-увлажняющая маска Морской источник для лица</t>
+  </si>
+  <si>
+    <t>Лосьон после депиляции Без масла с азуленом</t>
+  </si>
+  <si>
+    <t>Лосьон перед депиляцией  Алое вера</t>
+  </si>
+  <si>
+    <t>Тальк</t>
+  </si>
+  <si>
+    <t>Гель для душа в тубе 30 мл LBC</t>
+  </si>
+  <si>
+    <t>Сахарная паста мягкой консистенции</t>
+  </si>
+  <si>
+    <t>Сахарная паста плотной консистенции</t>
+  </si>
+  <si>
+    <t>Сахарная паста для депиляции DE VELOURS средняя</t>
+  </si>
+  <si>
+    <t>Масло Perron Rigot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Воск пленочный Белый шоколад </t>
+  </si>
+  <si>
+    <t>Полотенце СГИ-002/45 35х70</t>
+  </si>
+  <si>
+    <t>Простынь СГИ-001/17 160х200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Простынь СГИ-001/17 140х200 плотная  </t>
+  </si>
+  <si>
+    <t>Простынь СГИ-001/17 80х200</t>
+  </si>
+  <si>
+    <t>Шапочка "Шарлотка" 100 шт</t>
+  </si>
+  <si>
+    <t>Бикини женские 1 шт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пленка пластик </t>
+  </si>
+  <si>
+    <t>Трусы  мужские 1шт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тапочки махровые 1шт </t>
+  </si>
+  <si>
+    <t>Тапки вьетнамки 1 пара</t>
+  </si>
+  <si>
+    <t>Полоски 100 шт в уп</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Полоски лицо 100 шт в уп </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Шпатели 100шт в уп </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Картриджи в кассете в ассортименте 100мл </t>
+  </si>
+  <si>
+    <t>МАСКА-ПРОКОЛЛАГЕН MASQUE BIOLOGIQUE FEERIE (sachet monodose) 50g</t>
+  </si>
+  <si>
+    <t>МАСКА С ВЫТЯЖКОЙ ИЗ ИКРЫ MASQUE COLLAGENE CAVIAR (sachet monodose) 1g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">РЕСТРУКТУРИРУЮЩАЯ И РАЗГЛАЖИВАЮЩАЯ ПУДРА ДЛЯ ЛИЦА  SOIN RESTRUCTURANT ET LISSANT N°2 </t>
+  </si>
+  <si>
+    <t>РЕСТРУКТУРИРУЮЩИЙ И РАЗГЛАЖИВАЮЩИЙ ЛОСЬОН ДЛЯ ЛИЦА SOIN RESTRUCTURANT ET LISSANT N°1</t>
+  </si>
+  <si>
+    <t>ЛИФТИНГОВАЯ ПУДРА ДЛЯ ЛИЦА, ШЕИ, БЮСТА LIFT C.V.S. N°2 VISAGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЛИФТИНГОВЫЙ КОМПЛЕКС (ЛОСЬОН)ДЛЯ ЛИЦА, ШЕИ, БЮСТА LIFT C.V.S. N°1 VISAGE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЭКСФОЛИРУЮЩИЙ ОЧИЩАЮЩИЙ ЛОСЬОН ДЛЯ ЛИЦА LOTION P50V </t>
+  </si>
+  <si>
+    <t>ОБНОВЛЯЮЩИЙ НАПОЛНЯЮЩИЙ ЛОСЬОН ДЛЯ ЛИЦА LOTION MC 110 #1</t>
+  </si>
+  <si>
+    <t>ОКСИГЕНИРУЮЩЕЕ СРЕДСТВО С ЭФФЕКТОМ МИЕРАМАССАЖА И ЗАЩИТОЙ ОТ ЗАГРЯЗ ОКРУЖ СР BOOSTER VIP O2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МАСКА ДЛЯ ЛИЦА MASQUE SECONDE PEAU </t>
+  </si>
+  <si>
+    <t>ТОНИЗИРУЮЩАЯ МАСКА ДЛЯ ЛИЦА С МОРСКИМИ ВОДОРОСЛЯМИ SOIN BIOVECTEUR MARIN 39 Г</t>
+  </si>
+  <si>
+    <t>МАСКА ДЛЯ ЛИЦА С ЗЕЛЕНЫМИ ВОДОРОСЛЯМИ COLD MASK</t>
+  </si>
+  <si>
+    <t>МАСКА ЭКСФОЛИАНТ ДЛЯ ЛИЦА MASQUE EXFOLIANT P50 VISAGE 7 ml (20 ampoules)</t>
+  </si>
+  <si>
+    <t>ОЧИЩАЮЩАЯ И СЕБО РЕГУЛИРУЮЩАЯ МАСКА ДЛЯ ЛИЦА ТЕЛА И КОЖИ ГОЛОВЫ MASQUE BAIN DE PLANTES</t>
+  </si>
+  <si>
+    <t>УВЛАЖНЯЮЩАЯ МАСКА ДЛЯ ЧУВСТВИТЕЛЬНОЙ КОЖИ MASQUE BIOSENSIBLE</t>
+  </si>
+  <si>
+    <t>Балансирующая сыворотка для лица COMPLEXE IRIBIOL SERUM AUTHENTIQUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЛИПИДНАЯ ЗАЩИТА ДЛЯ КОЖИ ЛИЦА SERUM T.E.W.L. </t>
+  </si>
+  <si>
+    <t>ОКСИГЕНИРУЮЩИЙ ФЛЮИД ДЛЯ ЛИЦА FLUIDE VIP O2</t>
+  </si>
+  <si>
+    <t>ПОДТЯГИВАЮЩАЯ СЫВОРОТКА ДЛЯ ЛИЦА COLLAGENE NATIF</t>
+  </si>
+  <si>
+    <t>РАЗГЛАЖИВАЮЩАЯ СЫВОРОТКА ДЛЯ ЛИЦА, ШЕИ, ДЕКОЛЬТЕ ELASTINE</t>
+  </si>
+  <si>
+    <t>СЫВОРОТКА ДЛЯ ЛИЦА OLIGO PROTEINES MARINES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СЫВОРОТКА ДЛЯ ЛИЦА ШЕИ ДЕКОЛЬТЕ PLACENTA </t>
+  </si>
+  <si>
+    <t>СЫВОРОТКА ДЛЯ ЛИЦА ШЕИ ДЕКОЛЬТЕ ISO PLACENTA</t>
+  </si>
+  <si>
+    <t>СЫВОРОТКА ДЛЯ ЛИЦА ШЕИ И ДЕКОЛЬТЕ SERUM PIGM 400</t>
+  </si>
+  <si>
+    <t>СЫВОРОТКА ДЛЯ ЛИЦА, ШЕИ, ДЕКОЛЬТЕ COLOSTRUM</t>
+  </si>
+  <si>
+    <t>Сыворотка против отеков зоны вокруг глаз LIPOSOME SERUM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">УВЛАЖНЯЮЩАЯ И ВОССТАНАВЛИВАЮЩАЯ СЫВОРОТКА ДЛЯ ЛИЦА EXTRAITS TISSULAIRES </t>
+  </si>
+  <si>
+    <t xml:space="preserve">РЕГЕНЕРИРУЮЩАЯ И УВЛАЖНЯЮЩАЯ ЭМУЛЬСИЯ ДЛЯ ЛИЦА EMULSION ORIGINELLE REGENERANTE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Регенерирующий крем для лица CREME ISO PLACENTA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тонизирующий крем для лица CREME COLLAGENE </t>
+  </si>
+  <si>
+    <t>УСПОКАИВАЮЩИЙ КРЕМ  КРЕМ ДЛЯ ЛИЦА ПРОТИВ ПОКРАСНЕНИЙ СREME VERTE ESPOIR A.R.</t>
+  </si>
+  <si>
+    <t>ОКСИГЕНИРУЮЩИЙ КРЕМ ДЛЯ ВЕК CREME CONTOUR DES YEUX VIP O2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Подтягивающий крем для зоны вокруг глаз и губ против морщин  CREME CONTOUR DES YEUX ET LEVRES BIOFIXINE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">БАЛЬЗАМ ДЛЯ ГУБ BIOKISS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">223.011 Активный тоник для лица | Active Treating Tonic for Face </t>
+  </si>
+  <si>
+    <t xml:space="preserve">420.113 Гель-активатор | Gel Activator </t>
+  </si>
+  <si>
+    <t>Мягкий очищающий крем | Gentle cleanser cream</t>
+  </si>
+  <si>
+    <t>2238.1701 Отшелушивающий крем двойного действия | Fine Gentle Facial Peeling Cream</t>
+  </si>
+  <si>
+    <t>2134.1402 Клеточная сыворотка корректирующая тон кожи с эласто-коллагеном | Cellcosmet Ultra Brightening  Elasto-Collagen XT 4 фл х10 мл</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2136.1601 Клеточная коллагеновая маска-вуаль для кожи лица и шеи | ProCollagen Face/Neck 6масок х 6ампул </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2238.1101 Маска анти-стресс | Anti-stress Moisturising Matifying Cream Mask </t>
+  </si>
+  <si>
+    <t>Биоцеллюлозная маска Сияние | Cellcosmet Swiss BioTech CellRediance Mask 1 шт</t>
+  </si>
+  <si>
+    <t>Биоцеллюлозная маска Яркий тон | Cellcosmet Swiss BioTech CellBrightening Mask 1 шт</t>
+  </si>
+  <si>
+    <t>Клеточный ультраревитализирующий крем для лица | ProLift Cream мини-продукт</t>
+  </si>
+  <si>
+    <t>КЛЕТОЧНЫЙ КРЕМ ДЛЯ КОЖИ ВОКРУГ ГЛАЗ 30 мл (Т.А)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Крем Cellift Light 15 мл </t>
+  </si>
+  <si>
+    <t>КЛЕТОЧНЫЙИ КРЕМ ДЛЯ КОЖИ ВОКРУГ ГЛАЗ (золото) 15 мл (Т.А)</t>
+  </si>
+  <si>
+    <t>КРЕМ Cell Bust XT-А красн 15 мл (Т.А)</t>
+  </si>
+  <si>
+    <t>КРЕМ Sensitive Jour/Day красн 15 мл (Т.А)</t>
+  </si>
+  <si>
+    <t>Гидрирующая маска</t>
+  </si>
+  <si>
+    <t>Согревающая сыворотка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E532 Салициловый скраб Cебо-Пилинг </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E533 Крем Себо Крем </t>
+  </si>
+  <si>
+    <t>E534 Глиняная маска Себо Минерал</t>
+  </si>
+  <si>
+    <t>E536 Поросуживающая сыворотка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E898 Лосьон SOFT ENZYM </t>
+  </si>
+  <si>
+    <t>Е2131 Массажная крем-маска LIPOLYSINE</t>
+  </si>
+  <si>
+    <t>Е1855 Тонизирующая пенка для снятия макияжа</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E1124 Массажный крем против морщин для лица </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Е1844 Маска крем </t>
+  </si>
+  <si>
+    <t>370005 Дневной крем с СПФ50</t>
+  </si>
+  <si>
+    <t>762290 OPT Маска для лица очищ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">762528 Демакияж для глаз </t>
+  </si>
+  <si>
+    <t>762672 Базовое молочко для демакияжа</t>
+  </si>
+  <si>
+    <t>762689 Лосьон для чувствительной кожи</t>
+  </si>
+  <si>
+    <t>582324 Очищающий гель феруловый</t>
+  </si>
+  <si>
+    <t>912190 PF Крем массажный для тела АЛЬГА. 1000 г GERMAINE (крем К. О.)</t>
+  </si>
+  <si>
+    <t>382000 TЕ RADIANCE Сыворотка с чистым витамином С (1шт.х 3 мл)</t>
+  </si>
+  <si>
+    <t>382001TЕ RADIANCE Масло-сыворотка с чистым витамином С (Массажное средство)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">382002 TЕ RADIANCE Маска для лица с витамином С (1шт.х 33 мл.) </t>
+  </si>
+  <si>
+    <t>422002 Т Лифт (ИН) Программа лифтинга и плотности лица уп 5 проц</t>
+  </si>
+  <si>
+    <t>392000 Программа для лица Wrinkles, 3пр</t>
+  </si>
+  <si>
+    <t xml:space="preserve">440201 Очищающее освежающее молочко для всех типов |  Hydra Fraicheur Milk </t>
+  </si>
+  <si>
+    <t>440211 Очищающий тонизирующий лосьон для всех типов | Hydra Fraicheur Toning Lotion</t>
+  </si>
+  <si>
+    <t>451444 Лифтинг крем для глаз с витаминами | Longue Vie Yeux Eye Cream</t>
+  </si>
+  <si>
+    <t>442504 Интенсивный увлажняющий крем для всех типов кожи |  Hydrazone Cream</t>
+  </si>
+  <si>
+    <t xml:space="preserve">442532 Интенсивный витаминный восстанавливающий крем от морщин | Longue Vie Cream </t>
+  </si>
+  <si>
+    <t xml:space="preserve">501427 Очищающий антибактериальный лосьон для жирной кожи | Microbiotic Lotion </t>
+  </si>
+  <si>
+    <t xml:space="preserve">442620 Успокаивающая маска для лица для чувствительной и раздраженной кожи | Hydra Sensitive Mask </t>
+  </si>
+  <si>
+    <t>453890 Моделирующий серум-крем для лица | Sculpting Cream Serum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">453800 Очищающее средство эксфолиант | Exfoliating makeup remover </t>
+  </si>
+  <si>
+    <t xml:space="preserve">453840 Серум -гель для жирной кожи для лица | Purifying serum Gel Double Ionisation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">453820 Серум -гель для лица для сухой кожи (питание) | Nourishing serum Gel Double Ionisation </t>
+  </si>
+  <si>
+    <t>453850 Серум -гель для чувствительной кожи (успокоение) | Calming serum Gel Double Ionisation</t>
+  </si>
+  <si>
+    <t>453860 Серум-гель для лица | Lightening serum Gel Double Ionisation</t>
+  </si>
+  <si>
+    <t>453870 Серум-гель для лица Двойная Ионизация | Age logic serum Gel Double Ionisation</t>
+  </si>
+  <si>
+    <t>453940 Серум-гель для лица защита от солнца | Sun Vital Care serum Gel Double Ionisation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">453900 Серум-гель для области вокруг глаз | Anti-wrinkle serum gel for eyes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">453810 Увлажняющий гель | Moisturizing serum Gel Double Ionisation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">453880 Эмульсия Оксигенант OZ 2 | OZ2 oxygenating emulsion </t>
+  </si>
+  <si>
+    <t>453955 Программа для глаз AGE Logic 10 процедур</t>
+  </si>
+  <si>
+    <t>Маска АкваФитс 320 г</t>
+  </si>
+  <si>
+    <t>Блистер АКВАФИТС  + маска 320 г</t>
+  </si>
+  <si>
+    <t>KT19004 Энергизирующая программа детокс Spiruline</t>
+  </si>
+  <si>
+    <t>VT15049 Мягкий очищающий лосьон для лица</t>
+  </si>
+  <si>
+    <t>KT19003 Энергезирующий детокс крем-гель для лица</t>
+  </si>
+  <si>
+    <t>KT15041 Очищающий мицеллярный лосьон для лица</t>
+  </si>
+  <si>
+    <t>KT16004 Крем для лица выравнивающий</t>
+  </si>
+  <si>
+    <t>VT15053 Восстанавливающий морской спрей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GT17045 Сияющий скраб для лица Koh Tao </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GT17044 'Очищающий увлажняющий крем для лица Koh Tao </t>
+  </si>
+  <si>
+    <t>KT15024 Энзимный скраб</t>
+  </si>
+  <si>
+    <t xml:space="preserve">УЛЬТРАУВЛАЖНЯЮЩИЙ КРЕМ МИНЕРАЛЬНАЯ ЗАЩИТА SPF 50 + /  ULTRA UV PROTECTIVE MINERAL DEFENCE SPF 50 + </t>
+  </si>
+  <si>
+    <t>Краска для бровей и ресниц   RefletoCil Sensitive  15 ml тон 3,1/ 1 /3 /1,1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Окислитель 3% кремообразный </t>
+  </si>
+  <si>
+    <t>Ватные  диски</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Бинт </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Шприц </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Бумажные салфетки </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Перчатки </t>
+  </si>
+  <si>
+    <t xml:space="preserve">25*25 салфетки 100 шт в уп </t>
+  </si>
+  <si>
+    <t>ватные палочки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Хлоргексидин </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BIOLOGIQUE RECHERCHE Франция </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CELLCOSMET Швейцария </t>
+  </si>
+  <si>
+    <t>ANNA LOTAN Израиль</t>
+  </si>
+  <si>
+    <t>CHRISTINA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CND США </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ERICSON Франция </t>
+  </si>
+  <si>
+    <t>GERMAINE de CAPUCCINI Испания</t>
+  </si>
+  <si>
+    <t>GUINOT Франция</t>
+  </si>
+  <si>
+    <t>Phyt's Франция</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thalgo Франция </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ULTRACEUTICALS Австралия </t>
+  </si>
+  <si>
+    <t>RefletoCil</t>
+  </si>
+  <si>
+    <t>Italwax Италия</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perron Rigot </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHRISTINA FITZGERALD  </t>
+  </si>
+  <si>
+    <t>COMFORT ZONE</t>
+  </si>
+  <si>
+    <t>Jenssen Германия</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THALASSO bretagne Франция </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,6 +799,13 @@
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="204"/>
     </font>
   </fonts>
@@ -204,15 +826,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="S6" xfId="2" xr:uid="{848550D2-3846-4394-8D75-0684016C0829}"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
@@ -530,7 +1163,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -736,10 +1369,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Лист2"/>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -766,7 +1399,9 @@
       <c r="B2" t="s">
         <v>26</v>
       </c>
-      <c r="D2"/>
+      <c r="D2" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -775,7 +1410,9 @@
       <c r="B3" t="s">
         <v>27</v>
       </c>
-      <c r="D3"/>
+      <c r="D3" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -784,7 +1421,9 @@
       <c r="B4" t="s">
         <v>28</v>
       </c>
-      <c r="D4"/>
+      <c r="D4" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -793,7 +1432,84 @@
       <c r="B5" t="s">
         <v>29</v>
       </c>
-      <c r="D5"/>
+      <c r="D5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D6" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D7" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D8" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D9" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D10" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D11" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D12" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D13" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D14" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D15" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D16" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D17" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D18" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D19" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D20" s="1" t="s">
+        <v>252</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -803,25 +1519,25 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Лист4"/>
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:O195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="17.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="57.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.42578125" style="1" customWidth="1"/>
     <col min="7" max="7" width="6.28515625" style="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="12.85546875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="11.5703125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="25.85546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="17.85546875" style="1" customWidth="1"/>
     <col min="13" max="13" width="12.5703125" style="1" customWidth="1"/>
     <col min="14" max="14" width="19.42578125" style="1" customWidth="1"/>
     <col min="15" max="15" width="8.5703125" style="1" customWidth="1"/>
@@ -871,131 +1587,71 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>27</v>
-      </c>
+      <c r="B2"/>
       <c r="C2"/>
-      <c r="D2" t="s">
-        <v>43</v>
+      <c r="D2" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="E2">
         <v>500</v>
       </c>
-      <c r="F2">
-        <v>550</v>
-      </c>
-      <c r="G2">
-        <v>300</v>
-      </c>
-      <c r="H2">
-        <v>10</v>
-      </c>
-      <c r="I2">
-        <v>2</v>
-      </c>
-      <c r="J2">
-        <v>100</v>
-      </c>
-      <c r="K2">
-        <v>2</v>
-      </c>
-      <c r="L2">
-        <v>125</v>
-      </c>
-      <c r="M2">
-        <v>70</v>
-      </c>
-      <c r="N2">
-        <v>300</v>
-      </c>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>26</v>
-      </c>
+      <c r="B3"/>
       <c r="C3"/>
-      <c r="D3" t="s">
-        <v>44</v>
+      <c r="D3" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="E3">
-        <v>250</v>
-      </c>
-      <c r="F3">
-        <v>270</v>
-      </c>
-      <c r="G3">
-        <v>360</v>
-      </c>
-      <c r="H3">
-        <v>10</v>
-      </c>
-      <c r="I3">
-        <v>3</v>
-      </c>
-      <c r="J3">
-        <v>90</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>25</v>
-      </c>
-      <c r="M3">
-        <v>50</v>
-      </c>
-      <c r="N3">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+    </row>
+    <row r="4" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>28</v>
-      </c>
+      <c r="B4"/>
       <c r="C4"/>
-      <c r="D4" t="s">
-        <v>45</v>
+      <c r="D4" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="E4">
-        <v>500</v>
-      </c>
-      <c r="F4">
-        <v>530</v>
-      </c>
-      <c r="G4">
-        <v>165</v>
-      </c>
-      <c r="H4">
-        <v>15</v>
-      </c>
-      <c r="I4">
-        <v>16</v>
-      </c>
-      <c r="J4">
-        <v>10</v>
-      </c>
-      <c r="K4">
-        <v>2</v>
-      </c>
-      <c r="L4">
-        <v>50</v>
-      </c>
-      <c r="M4">
-        <v>25</v>
-      </c>
-      <c r="N4">
-        <v>123</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -1003,51 +1659,1547 @@
       </c>
       <c r="C5"/>
       <c r="D5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E5">
-        <v>220</v>
-      </c>
-      <c r="F5">
-        <v>260</v>
-      </c>
-      <c r="G5">
-        <v>550</v>
-      </c>
-      <c r="I5">
-        <v>100</v>
-      </c>
-      <c r="J5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+    </row>
+    <row r="6" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>27</v>
-      </c>
+      <c r="B6"/>
       <c r="C6"/>
-      <c r="D6" t="s">
-        <v>47</v>
+      <c r="D6" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="E6">
+        <v>100</v>
+      </c>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="J6"/>
+    </row>
+    <row r="7" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="D7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="D9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="D10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="D11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="D12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="D13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="D14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="D15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D16" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D17" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D18" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D19" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" s="1">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="20" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D20" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E20" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="21" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D21" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="22" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D22" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D23" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="24" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D24" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E24" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="25" spans="4:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D25" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E25" s="1">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="26" spans="4:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D26" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E26" s="1">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="27" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D27" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="28" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D28" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="29" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D29" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E29" s="1">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="30" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D30" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="31" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D31" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E31" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="32" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D32" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E32" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="33" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D33" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E33" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="4:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D34" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E34" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="4:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="D35" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E35" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="4:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D36" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E36" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D37" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E37" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="38" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D38" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E38" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="39" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D39" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E39" s="1">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="40" spans="4:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D40" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E40" s="1">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="41" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D41" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E41" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="42" spans="4:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D42" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E42" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="43" spans="4:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D43" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E43" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="44" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D44" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E44" s="1">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="45" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D45" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E45" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="46" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D46" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E46" s="1">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="47" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D47" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E47" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="48" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D48" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E48" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="49" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D49" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E49" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="4:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D50" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E50" s="1">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="51" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D51" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E51" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="52" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D52" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E52" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="53" spans="4:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D53" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E53" s="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="54" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D54" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E54" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="55" spans="4:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D55" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E55" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" spans="4:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D56" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E56" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="57" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D57" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E57" s="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="58" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D58" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E58" s="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="59" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D59" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E59" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="60" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D60" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E60" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D61" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E61" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="62" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D62" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E62" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="63" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D63" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E63" s="1">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="64" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D64" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E64" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="65" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D65" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E65" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D66" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E66" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D67" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E67" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D68" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E68" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="69" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D69" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E69" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="70" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D70" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E70" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D71" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E71" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D72" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E72" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D73" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E73" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D74" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E74" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D75" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E75" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D76" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E76" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D77" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E77" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D78" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E78" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D79" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E79" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="4:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D80" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E80" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="4:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D81" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="F6">
-        <v>54</v>
-      </c>
-      <c r="G6">
-        <v>123</v>
-      </c>
-      <c r="J6">
+      <c r="E81" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="4:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D82" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E82" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="83" spans="4:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D83" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E83" s="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="84" spans="4:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D84" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E84" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="85" spans="4:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D85" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E85" s="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="86" spans="4:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D86" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E86" s="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="87" spans="4:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D87" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E87" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="88" spans="4:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D88" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E88" s="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="89" spans="4:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="D89" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E89" s="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="90" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D90" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E90" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="4:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D91" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E91" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="4:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D92" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E92" s="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="93" spans="4:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D93" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E93" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="4:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D94" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E94" s="1">
         <v>200</v>
+      </c>
+    </row>
+    <row r="95" spans="4:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D95" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E95" s="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="96" spans="4:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D96" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E96" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="97" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D97" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E97" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D98" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E98" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="99" spans="4:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D99" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E99" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="100" spans="4:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D100" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E100" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="101" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D101" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E101" s="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="102" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D102" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E102" s="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="103" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D103" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E103" s="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="104" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D104" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E104" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="105" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D105" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E105" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="106" spans="4:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D106" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E106" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="107" spans="4:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D107" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E107" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108" spans="4:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D108" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E108" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="109" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D109" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E109" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="110" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D110" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E110" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="111" spans="4:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D111" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E111" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="112" spans="4:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D112" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E112" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="113" spans="4:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D113" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E113" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="114" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D114" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E114" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="115" spans="4:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D115" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E115" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="116" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D116" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E116" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="117" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D117" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E117" s="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="118" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D118" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E118" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="119" spans="4:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D119" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E119" s="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="120" spans="4:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="D120" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E120" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="121" spans="4:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D121" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E121" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122" spans="4:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D122" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E122" s="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="123" spans="4:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D123" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E123" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="4:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D124" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E124" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="4:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D125" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E125" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D126" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E126" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="127" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D127" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E127" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="128" spans="4:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D128" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E128" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="129" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D129" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E129" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="130" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D130" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E130" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="131" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D131" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E131" s="1">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="132" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D132" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E132" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="133" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D133" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E133" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="134" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D134" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E134" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="135" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D135" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E135" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="136" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D136" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E136" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="137" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D137" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E137" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="138" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D138" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E138" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="139" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D139" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E139" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="140" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D140" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E140" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="141" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D141" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E141" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="142" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D142" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E142" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="143" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D143" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E143" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="144" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D144" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E144" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="145" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D145" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E145" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="146" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D146" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E146" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="147" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D147" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E147" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="148" spans="4:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D148" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E148" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="149" spans="4:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D149" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E149" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="150" spans="4:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D150" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E150" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="151" spans="4:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D151" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E151" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="152" spans="4:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D152" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E152" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="153" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D153" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E153" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="154" spans="4:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D154" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E154" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="155" spans="4:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D155" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E155" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="156" spans="4:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D156" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E156" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="157" spans="4:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D157" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E157" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="158" spans="4:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D158" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E158" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="159" spans="4:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D159" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E159" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="160" spans="4:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D160" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E160" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="161" spans="4:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D161" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E161" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="162" spans="4:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D162" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E162" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="163" spans="4:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D163" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E163" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="164" spans="4:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D164" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E164" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="165" spans="4:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D165" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E165" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="166" spans="4:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D166" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E166" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="167" spans="4:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D167" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E167" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="168" spans="4:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D168" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E168" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="169" spans="4:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D169" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E169" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="170" spans="4:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D170" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E170" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="171" spans="4:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D171" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E171" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="172" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D172" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E172" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="173" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D173" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E173" s="1">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="174" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D174" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E174" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D175" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E175" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="176" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D176" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E176" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="177" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D177" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E177" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="178" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D178" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E178" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="179" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D179" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E179" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="180" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D180" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E180" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="181" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D181" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E181" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="182" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D182" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E182" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="183" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D183" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E183" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="184" spans="4:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D184" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E184" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="185" spans="4:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D185" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E185" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="186" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D186" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E186" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="187" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D187" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E187" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="188" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D188" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E188" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D189" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E189" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D190" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E190" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D191" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E191" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="192" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D192" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E192" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="193" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D193" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E193" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="194" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D194" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E194" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="195" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D195" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E195" s="1">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">

--- a/etual.xlsx
+++ b/etual.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ЭтаКнига"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="21000" yWindow="5175" windowWidth="15285" windowHeight="11385" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Мастера" sheetId="1" state="visible" r:id="rId1"/>
@@ -124,7 +124,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
@@ -158,7 +158,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="1" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="3">
@@ -547,11 +546,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="3.5703125" customWidth="1" style="20" min="1" max="1"/>
-    <col width="24.42578125" customWidth="1" style="20" min="2" max="2"/>
-    <col width="12.85546875" customWidth="1" style="20" min="3" max="3"/>
-    <col width="10" customWidth="1" style="20" min="4" max="4"/>
-    <col width="13.85546875" customWidth="1" style="20" min="9" max="9"/>
+    <col width="3.5703125" customWidth="1" style="19" min="1" max="1"/>
+    <col width="24.42578125" customWidth="1" style="19" min="2" max="2"/>
+    <col width="12.85546875" customWidth="1" style="19" min="3" max="3"/>
+    <col width="10" customWidth="1" style="19" min="4" max="4"/>
+    <col width="13.85546875" customWidth="1" style="19" min="9" max="9"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -939,7 +938,7 @@
       <c r="H17" s="17" t="n"/>
       <c r="I17" s="17" t="n"/>
     </row>
-    <row r="18" ht="90" customHeight="1" s="20">
+    <row r="18" ht="90" customHeight="1" s="19">
       <c r="A18" s="17" t="n">
         <v>18</v>
       </c>
@@ -981,9 +980,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="5.5703125" customWidth="1" style="20" min="1" max="1"/>
-    <col width="32.5703125" customWidth="1" style="20" min="2" max="2"/>
-    <col width="34.85546875" customWidth="1" style="20" min="4" max="4"/>
+    <col width="5.5703125" customWidth="1" style="19" min="1" max="1"/>
+    <col width="32.5703125" customWidth="1" style="19" min="2" max="2"/>
+    <col width="34.85546875" customWidth="1" style="19" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1447,32 +1446,32 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P999"/>
+  <dimension ref="A1:P228"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="17.42578125" customWidth="1" style="20" min="2" max="2"/>
-    <col width="34.140625" customWidth="1" style="20" min="3" max="3"/>
-    <col width="57.140625" customWidth="1" style="20" min="4" max="4"/>
-    <col width="10.140625" customWidth="1" style="20" min="5" max="5"/>
-    <col width="9.42578125" customWidth="1" style="20" min="6" max="6"/>
-    <col width="6.28515625" customWidth="1" style="20" min="7" max="7"/>
-    <col width="9" customWidth="1" style="20" min="8" max="8"/>
-    <col width="10.140625" customWidth="1" style="20" min="9" max="9"/>
+    <col width="17.42578125" customWidth="1" style="19" min="2" max="2"/>
+    <col width="34.140625" customWidth="1" style="19" min="3" max="3"/>
+    <col width="57.140625" customWidth="1" style="19" min="4" max="4"/>
+    <col width="10.140625" customWidth="1" style="19" min="5" max="5"/>
+    <col width="9.42578125" customWidth="1" style="19" min="6" max="6"/>
+    <col width="6.28515625" customWidth="1" style="19" min="7" max="7"/>
+    <col width="9" customWidth="1" style="19" min="8" max="8"/>
+    <col width="10.140625" customWidth="1" style="19" min="9" max="9"/>
     <col width="14.85546875" customWidth="1" style="7" min="10" max="10"/>
     <col width="14.7109375" customWidth="1" style="13" min="11" max="11"/>
     <col width="11.42578125" customWidth="1" style="16" min="12" max="12"/>
-    <col width="13.42578125" customWidth="1" style="20" min="13" max="13"/>
-    <col width="13.28515625" customWidth="1" style="20" min="14" max="15"/>
-    <col width="10.5703125" customWidth="1" style="20" min="16" max="16"/>
+    <col width="13.42578125" customWidth="1" style="19" min="13" max="13"/>
+    <col width="13.28515625" customWidth="1" style="19" min="14" max="15"/>
+    <col width="10.5703125" customWidth="1" style="19" min="16" max="16"/>
   </cols>
   <sheetData>
-    <row r="1" ht="45.75" customHeight="1" s="20">
+    <row r="1" ht="45.75" customHeight="1" s="19">
       <c r="A1" s="17" t="inlineStr">
         <is>
           <t>№</t>
@@ -1554,7 +1553,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="18.75" customHeight="1" s="20">
+    <row r="2" ht="18.75" customHeight="1" s="19">
       <c r="A2" s="17" t="n"/>
       <c r="B2" s="17" t="inlineStr">
         <is>
@@ -1581,7 +1580,7 @@
       <c r="H2" s="2" t="n"/>
       <c r="I2" s="2" t="n"/>
       <c r="J2" s="4" t="n">
-        <v>65</v>
+        <v>485</v>
       </c>
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="15" t="n"/>
@@ -1590,7 +1589,7 @@
       <c r="O2" s="17" t="n"/>
       <c r="P2" s="17" t="n"/>
     </row>
-    <row r="3" ht="30" customHeight="1" s="20">
+    <row r="3" ht="30" customHeight="1" s="19">
       <c r="A3" s="17" t="n"/>
       <c r="B3" s="1" t="inlineStr">
         <is>
@@ -1616,7 +1615,9 @@
       </c>
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
-      <c r="J3" s="6" t="n"/>
+      <c r="J3" s="6" t="n">
+        <v>10</v>
+      </c>
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="15" t="n"/>
       <c r="M3" s="17" t="n"/>
@@ -1624,7 +1625,7 @@
       <c r="O3" s="17" t="n"/>
       <c r="P3" s="17" t="n"/>
     </row>
-    <row r="4" ht="27.75" customHeight="1" s="20">
+    <row r="4" ht="27.75" customHeight="1" s="19">
       <c r="A4" s="17" t="n"/>
       <c r="B4" s="1" t="inlineStr">
         <is>
@@ -1658,7 +1659,7 @@
       <c r="O4" s="17" t="n"/>
       <c r="P4" s="17" t="n"/>
     </row>
-    <row r="5" ht="30" customHeight="1" s="20">
+    <row r="5" ht="30" customHeight="1" s="19">
       <c r="A5" s="17" t="n"/>
       <c r="B5" s="1" t="inlineStr">
         <is>
@@ -1685,7 +1686,7 @@
       <c r="H5" s="2" t="n"/>
       <c r="I5" s="2" t="n"/>
       <c r="J5" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K5" s="4" t="n">
         <v>3</v>
@@ -1698,7 +1699,7 @@
       <c r="O5" s="17" t="n"/>
       <c r="P5" s="17" t="n"/>
     </row>
-    <row r="6" ht="30" customHeight="1" s="20">
+    <row r="6" ht="30" customHeight="1" s="19">
       <c r="A6" s="17" t="n"/>
       <c r="B6" s="1" t="inlineStr">
         <is>
@@ -1732,7 +1733,7 @@
       <c r="O6" s="17" t="n"/>
       <c r="P6" s="17" t="n"/>
     </row>
-    <row r="7" ht="30" customHeight="1" s="20">
+    <row r="7" ht="30" customHeight="1" s="19">
       <c r="A7" s="17" t="n"/>
       <c r="B7" s="17" t="inlineStr">
         <is>
@@ -1768,7 +1769,7 @@
       <c r="O7" s="17" t="n"/>
       <c r="P7" s="17" t="n"/>
     </row>
-    <row r="8" ht="30" customHeight="1" s="20">
+    <row r="8" ht="30" customHeight="1" s="19">
       <c r="A8" s="17" t="n"/>
       <c r="B8" s="17" t="inlineStr">
         <is>
@@ -1804,7 +1805,7 @@
       <c r="O8" s="17" t="n"/>
       <c r="P8" s="17" t="n"/>
     </row>
-    <row r="9" ht="30" customHeight="1" s="20">
+    <row r="9" ht="30" customHeight="1" s="19">
       <c r="A9" s="17" t="n"/>
       <c r="B9" s="17" t="inlineStr">
         <is>
@@ -1840,7 +1841,7 @@
       <c r="O9" s="17" t="n"/>
       <c r="P9" s="17" t="n"/>
     </row>
-    <row r="10" ht="29.25" customHeight="1" s="20">
+    <row r="10" ht="29.25" customHeight="1" s="19">
       <c r="A10" s="17" t="n"/>
       <c r="B10" s="17" t="inlineStr">
         <is>
@@ -1876,7 +1877,7 @@
       <c r="O10" s="17" t="n"/>
       <c r="P10" s="17" t="n"/>
     </row>
-    <row r="11" ht="15.75" customHeight="1" s="20">
+    <row r="11" ht="15.75" customHeight="1" s="19">
       <c r="A11" s="17" t="n"/>
       <c r="B11" s="17" t="inlineStr">
         <is>
@@ -1914,7 +1915,7 @@
       <c r="O11" s="17" t="n"/>
       <c r="P11" s="17" t="n"/>
     </row>
-    <row r="12" ht="30" customHeight="1" s="20">
+    <row r="12" ht="30" customHeight="1" s="19">
       <c r="A12" s="17" t="n"/>
       <c r="B12" s="17" t="inlineStr">
         <is>
@@ -1950,7 +1951,7 @@
       <c r="O12" s="17" t="n"/>
       <c r="P12" s="17" t="n"/>
     </row>
-    <row r="13" ht="30" customHeight="1" s="20">
+    <row r="13" ht="30" customHeight="1" s="19">
       <c r="A13" s="17" t="n"/>
       <c r="B13" s="1" t="inlineStr">
         <is>
@@ -1990,7 +1991,7 @@
       <c r="O13" s="17" t="n"/>
       <c r="P13" s="17" t="n"/>
     </row>
-    <row r="14" ht="30" customHeight="1" s="20">
+    <row r="14" ht="30" customHeight="1" s="19">
       <c r="A14" s="17" t="n"/>
       <c r="B14" s="17" t="inlineStr">
         <is>
@@ -2026,7 +2027,7 @@
       <c r="O14" s="17" t="n"/>
       <c r="P14" s="17" t="n"/>
     </row>
-    <row r="15" ht="30" customHeight="1" s="20">
+    <row r="15" ht="30" customHeight="1" s="19">
       <c r="A15" s="17" t="n"/>
       <c r="B15" s="17" t="inlineStr">
         <is>
@@ -2062,7 +2063,7 @@
       <c r="O15" s="17" t="n"/>
       <c r="P15" s="17" t="n"/>
     </row>
-    <row r="16" ht="30" customHeight="1" s="20">
+    <row r="16" ht="30" customHeight="1" s="19">
       <c r="A16" s="17" t="n"/>
       <c r="B16" s="17" t="inlineStr">
         <is>
@@ -2098,7 +2099,7 @@
       <c r="O16" s="17" t="n"/>
       <c r="P16" s="17" t="n"/>
     </row>
-    <row r="17" ht="30" customHeight="1" s="20">
+    <row r="17" ht="30" customHeight="1" s="19">
       <c r="A17" s="17" t="n"/>
       <c r="B17" s="17" t="inlineStr">
         <is>
@@ -2134,7 +2135,7 @@
       <c r="O17" s="17" t="n"/>
       <c r="P17" s="17" t="n"/>
     </row>
-    <row r="18" ht="30" customHeight="1" s="20">
+    <row r="18" ht="30" customHeight="1" s="19">
       <c r="A18" s="17" t="n"/>
       <c r="B18" s="17" t="inlineStr">
         <is>
@@ -2172,7 +2173,7 @@
       <c r="O18" s="17" t="n"/>
       <c r="P18" s="17" t="n"/>
     </row>
-    <row r="19" ht="30" customHeight="1" s="20">
+    <row r="19" ht="30" customHeight="1" s="19">
       <c r="A19" s="17" t="n"/>
       <c r="B19" s="17" t="inlineStr">
         <is>
@@ -2210,7 +2211,7 @@
       <c r="O19" s="17" t="n"/>
       <c r="P19" s="17" t="n"/>
     </row>
-    <row r="20" ht="29.25" customHeight="1" s="20">
+    <row r="20" ht="29.25" customHeight="1" s="19">
       <c r="A20" s="17" t="n"/>
       <c r="B20" s="17" t="inlineStr">
         <is>
@@ -2248,7 +2249,7 @@
       <c r="O20" s="17" t="n"/>
       <c r="P20" s="17" t="n"/>
     </row>
-    <row r="21" ht="30" customHeight="1" s="20">
+    <row r="21" ht="30" customHeight="1" s="19">
       <c r="A21" s="17" t="n"/>
       <c r="B21" s="17" t="inlineStr">
         <is>
@@ -2286,7 +2287,7 @@
       <c r="O21" s="17" t="n"/>
       <c r="P21" s="17" t="n"/>
     </row>
-    <row r="22" ht="30" customHeight="1" s="20">
+    <row r="22" ht="30" customHeight="1" s="19">
       <c r="A22" s="17" t="n"/>
       <c r="B22" s="1" t="inlineStr">
         <is>
@@ -2326,7 +2327,7 @@
       <c r="O22" s="17" t="n"/>
       <c r="P22" s="17" t="n"/>
     </row>
-    <row r="23" ht="30" customHeight="1" s="20">
+    <row r="23" ht="30" customHeight="1" s="19">
       <c r="A23" s="17" t="n"/>
       <c r="B23" s="1" t="inlineStr">
         <is>
@@ -2366,7 +2367,7 @@
       <c r="O23" s="17" t="n"/>
       <c r="P23" s="17" t="n"/>
     </row>
-    <row r="24" ht="30" customHeight="1" s="20">
+    <row r="24" ht="30" customHeight="1" s="19">
       <c r="A24" s="17" t="n"/>
       <c r="B24" s="17" t="inlineStr">
         <is>
@@ -2406,7 +2407,7 @@
       <c r="O24" s="17" t="n"/>
       <c r="P24" s="17" t="n"/>
     </row>
-    <row r="25" ht="30" customHeight="1" s="20">
+    <row r="25" ht="30" customHeight="1" s="19">
       <c r="A25" s="17" t="n"/>
       <c r="B25" s="17" t="inlineStr">
         <is>
@@ -2442,7 +2443,7 @@
       <c r="O25" s="17" t="n"/>
       <c r="P25" s="17" t="n"/>
     </row>
-    <row r="26" ht="30" customHeight="1" s="20">
+    <row r="26" ht="30" customHeight="1" s="19">
       <c r="A26" s="17" t="n"/>
       <c r="B26" s="17" t="inlineStr">
         <is>
@@ -2478,7 +2479,7 @@
       <c r="O26" s="17" t="n"/>
       <c r="P26" s="17" t="n"/>
     </row>
-    <row r="27" ht="30" customHeight="1" s="20">
+    <row r="27" ht="30" customHeight="1" s="19">
       <c r="A27" s="17" t="n"/>
       <c r="B27" s="17" t="inlineStr">
         <is>
@@ -2514,7 +2515,7 @@
       <c r="O27" s="17" t="n"/>
       <c r="P27" s="17" t="n"/>
     </row>
-    <row r="28" ht="30" customHeight="1" s="20">
+    <row r="28" ht="30" customHeight="1" s="19">
       <c r="A28" s="17" t="n"/>
       <c r="B28" s="17" t="inlineStr">
         <is>
@@ -2550,7 +2551,7 @@
       <c r="O28" s="17" t="n"/>
       <c r="P28" s="17" t="n"/>
     </row>
-    <row r="29" ht="30" customHeight="1" s="20">
+    <row r="29" ht="30" customHeight="1" s="19">
       <c r="A29" s="17" t="n"/>
       <c r="B29" s="17" t="inlineStr">
         <is>
@@ -2586,7 +2587,7 @@
       <c r="O29" s="17" t="n"/>
       <c r="P29" s="17" t="n"/>
     </row>
-    <row r="30" ht="30" customHeight="1" s="20">
+    <row r="30" ht="30" customHeight="1" s="19">
       <c r="A30" s="17" t="n"/>
       <c r="B30" s="17" t="inlineStr">
         <is>
@@ -2622,7 +2623,7 @@
       <c r="O30" s="17" t="n"/>
       <c r="P30" s="17" t="n"/>
     </row>
-    <row r="31" ht="30" customHeight="1" s="20">
+    <row r="31" ht="30" customHeight="1" s="19">
       <c r="A31" s="17" t="n"/>
       <c r="B31" s="17" t="inlineStr">
         <is>
@@ -2658,7 +2659,7 @@
       <c r="O31" s="17" t="n"/>
       <c r="P31" s="17" t="n"/>
     </row>
-    <row r="32" ht="30" customHeight="1" s="20">
+    <row r="32" ht="30" customHeight="1" s="19">
       <c r="A32" s="17" t="n"/>
       <c r="B32" s="17" t="inlineStr">
         <is>
@@ -2694,7 +2695,7 @@
       <c r="O32" s="17" t="n"/>
       <c r="P32" s="17" t="n"/>
     </row>
-    <row r="33" ht="30" customHeight="1" s="20">
+    <row r="33" ht="30" customHeight="1" s="19">
       <c r="A33" s="17" t="n"/>
       <c r="B33" s="17" t="inlineStr">
         <is>
@@ -2730,7 +2731,7 @@
       <c r="O33" s="17" t="n"/>
       <c r="P33" s="17" t="n"/>
     </row>
-    <row r="34" ht="30" customHeight="1" s="20">
+    <row r="34" ht="30" customHeight="1" s="19">
       <c r="A34" s="17" t="n"/>
       <c r="B34" s="17" t="inlineStr">
         <is>
@@ -2766,7 +2767,7 @@
       <c r="O34" s="17" t="n"/>
       <c r="P34" s="17" t="n"/>
     </row>
-    <row r="35" ht="30" customHeight="1" s="20">
+    <row r="35" ht="30" customHeight="1" s="19">
       <c r="A35" s="17" t="n"/>
       <c r="B35" s="17" t="inlineStr">
         <is>
@@ -2802,7 +2803,7 @@
       <c r="O35" s="17" t="n"/>
       <c r="P35" s="17" t="n"/>
     </row>
-    <row r="36" ht="30" customHeight="1" s="20">
+    <row r="36" ht="30" customHeight="1" s="19">
       <c r="A36" s="17" t="n"/>
       <c r="B36" s="17" t="inlineStr">
         <is>
@@ -2838,7 +2839,7 @@
       <c r="O36" s="17" t="n"/>
       <c r="P36" s="17" t="n"/>
     </row>
-    <row r="37" ht="45" customHeight="1" s="20">
+    <row r="37" ht="45" customHeight="1" s="19">
       <c r="A37" s="17" t="n"/>
       <c r="B37" s="17" t="inlineStr">
         <is>
@@ -2876,7 +2877,7 @@
       <c r="O37" s="17" t="n"/>
       <c r="P37" s="17" t="n"/>
     </row>
-    <row r="38" ht="30" customHeight="1" s="20">
+    <row r="38" ht="30" customHeight="1" s="19">
       <c r="A38" s="17" t="n"/>
       <c r="B38" s="17" t="inlineStr">
         <is>
@@ -2912,7 +2913,7 @@
       <c r="O38" s="17" t="n"/>
       <c r="P38" s="17" t="n"/>
     </row>
-    <row r="39" ht="30" customHeight="1" s="20">
+    <row r="39" ht="30" customHeight="1" s="19">
       <c r="A39" s="17" t="n"/>
       <c r="B39" s="17" t="inlineStr">
         <is>
@@ -2948,7 +2949,7 @@
       <c r="O39" s="17" t="n"/>
       <c r="P39" s="17" t="n"/>
     </row>
-    <row r="40" ht="30" customHeight="1" s="20">
+    <row r="40" ht="30" customHeight="1" s="19">
       <c r="A40" s="17" t="n"/>
       <c r="B40" s="17" t="inlineStr">
         <is>
@@ -2984,7 +2985,7 @@
       <c r="O40" s="17" t="n"/>
       <c r="P40" s="17" t="n"/>
     </row>
-    <row r="41" ht="30" customHeight="1" s="20">
+    <row r="41" ht="30" customHeight="1" s="19">
       <c r="A41" s="17" t="n"/>
       <c r="B41" s="17" t="inlineStr">
         <is>
@@ -3020,7 +3021,7 @@
       <c r="O41" s="17" t="n"/>
       <c r="P41" s="17" t="n"/>
     </row>
-    <row r="42" ht="30" customHeight="1" s="20">
+    <row r="42" ht="30" customHeight="1" s="19">
       <c r="A42" s="17" t="n"/>
       <c r="B42" s="17" t="inlineStr">
         <is>
@@ -3056,7 +3057,7 @@
       <c r="O42" s="17" t="n"/>
       <c r="P42" s="17" t="n"/>
     </row>
-    <row r="43" ht="30" customHeight="1" s="20">
+    <row r="43" ht="30" customHeight="1" s="19">
       <c r="A43" s="17" t="n"/>
       <c r="B43" s="17" t="inlineStr">
         <is>
@@ -3094,7 +3095,7 @@
       <c r="O43" s="17" t="n"/>
       <c r="P43" s="17" t="n"/>
     </row>
-    <row r="44" ht="30" customHeight="1" s="20">
+    <row r="44" ht="30" customHeight="1" s="19">
       <c r="A44" s="17" t="n"/>
       <c r="B44" s="17" t="inlineStr">
         <is>
@@ -3130,7 +3131,7 @@
       <c r="O44" s="17" t="n"/>
       <c r="P44" s="17" t="n"/>
     </row>
-    <row r="45" ht="30" customHeight="1" s="20">
+    <row r="45" ht="30" customHeight="1" s="19">
       <c r="A45" s="17" t="n"/>
       <c r="B45" s="17" t="inlineStr">
         <is>
@@ -3166,7 +3167,7 @@
       <c r="O45" s="17" t="n"/>
       <c r="P45" s="17" t="n"/>
     </row>
-    <row r="46" ht="30" customHeight="1" s="20">
+    <row r="46" ht="30" customHeight="1" s="19">
       <c r="A46" s="17" t="n"/>
       <c r="B46" s="1" t="inlineStr">
         <is>
@@ -3206,7 +3207,7 @@
       <c r="O46" s="17" t="n"/>
       <c r="P46" s="17" t="n"/>
     </row>
-    <row r="47" ht="30" customHeight="1" s="20">
+    <row r="47" ht="30" customHeight="1" s="19">
       <c r="A47" s="17" t="n"/>
       <c r="B47" s="1" t="inlineStr">
         <is>
@@ -3246,7 +3247,7 @@
       <c r="O47" s="17" t="n"/>
       <c r="P47" s="17" t="n"/>
     </row>
-    <row r="48" ht="30" customHeight="1" s="20">
+    <row r="48" ht="30" customHeight="1" s="19">
       <c r="A48" s="17" t="n"/>
       <c r="B48" s="1" t="inlineStr">
         <is>
@@ -3286,7 +3287,7 @@
       <c r="O48" s="17" t="n"/>
       <c r="P48" s="17" t="n"/>
     </row>
-    <row r="49" ht="30" customHeight="1" s="20">
+    <row r="49" ht="30" customHeight="1" s="19">
       <c r="A49" s="17" t="n"/>
       <c r="B49" s="1" t="inlineStr">
         <is>
@@ -3326,7 +3327,7 @@
       <c r="O49" s="17" t="n"/>
       <c r="P49" s="17" t="n"/>
     </row>
-    <row r="50" ht="30" customHeight="1" s="20">
+    <row r="50" ht="30" customHeight="1" s="19">
       <c r="A50" s="17" t="n"/>
       <c r="B50" s="17" t="inlineStr">
         <is>
@@ -3360,7 +3361,7 @@
       <c r="O50" s="17" t="n"/>
       <c r="P50" s="17" t="n"/>
     </row>
-    <row r="51" ht="30" customHeight="1" s="20">
+    <row r="51" ht="30" customHeight="1" s="19">
       <c r="A51" s="17" t="n"/>
       <c r="B51" s="17" t="inlineStr">
         <is>
@@ -3394,7 +3395,7 @@
       <c r="O51" s="17" t="n"/>
       <c r="P51" s="17" t="n"/>
     </row>
-    <row r="52" ht="30" customHeight="1" s="20">
+    <row r="52" ht="30" customHeight="1" s="19">
       <c r="A52" s="17" t="n"/>
       <c r="B52" s="17" t="inlineStr">
         <is>
@@ -3430,7 +3431,7 @@
       <c r="O52" s="17" t="n"/>
       <c r="P52" s="17" t="n"/>
     </row>
-    <row r="53" ht="30" customHeight="1" s="20">
+    <row r="53" ht="30" customHeight="1" s="19">
       <c r="A53" s="17" t="n"/>
       <c r="B53" s="17" t="inlineStr">
         <is>
@@ -3466,7 +3467,7 @@
       <c r="O53" s="17" t="n"/>
       <c r="P53" s="17" t="n"/>
     </row>
-    <row r="54" ht="30" customHeight="1" s="20">
+    <row r="54" ht="30" customHeight="1" s="19">
       <c r="A54" s="17" t="n"/>
       <c r="B54" s="17" t="inlineStr">
         <is>
@@ -3502,7 +3503,7 @@
       <c r="O54" s="17" t="n"/>
       <c r="P54" s="17" t="n"/>
     </row>
-    <row r="55" ht="30" customHeight="1" s="20">
+    <row r="55" ht="30" customHeight="1" s="19">
       <c r="A55" s="17" t="n"/>
       <c r="B55" s="17" t="inlineStr">
         <is>
@@ -3538,7 +3539,7 @@
       <c r="O55" s="17" t="n"/>
       <c r="P55" s="17" t="n"/>
     </row>
-    <row r="56" ht="30" customHeight="1" s="20">
+    <row r="56" ht="30" customHeight="1" s="19">
       <c r="A56" s="17" t="n"/>
       <c r="B56" s="17" t="inlineStr">
         <is>
@@ -3574,7 +3575,7 @@
       <c r="O56" s="17" t="n"/>
       <c r="P56" s="17" t="n"/>
     </row>
-    <row r="57" ht="30" customHeight="1" s="20">
+    <row r="57" ht="30" customHeight="1" s="19">
       <c r="A57" s="17" t="n"/>
       <c r="B57" s="1" t="inlineStr">
         <is>
@@ -3614,7 +3615,7 @@
       <c r="O57" s="17" t="n"/>
       <c r="P57" s="17" t="n"/>
     </row>
-    <row r="58" ht="30" customHeight="1" s="20">
+    <row r="58" ht="30" customHeight="1" s="19">
       <c r="A58" s="17" t="n"/>
       <c r="B58" s="1" t="inlineStr">
         <is>
@@ -3648,7 +3649,7 @@
       <c r="O58" s="17" t="n"/>
       <c r="P58" s="17" t="n"/>
     </row>
-    <row r="59" ht="30" customHeight="1" s="20">
+    <row r="59" ht="30" customHeight="1" s="19">
       <c r="A59" s="17" t="n"/>
       <c r="B59" s="17" t="inlineStr">
         <is>
@@ -3682,7 +3683,7 @@
       <c r="O59" s="17" t="n"/>
       <c r="P59" s="17" t="n"/>
     </row>
-    <row r="60" ht="30" customHeight="1" s="20">
+    <row r="60" ht="30" customHeight="1" s="19">
       <c r="A60" s="17" t="n">
         <v>5</v>
       </c>
@@ -3720,7 +3721,7 @@
       <c r="O60" s="17" t="n"/>
       <c r="P60" s="17" t="n"/>
     </row>
-    <row r="61" ht="30" customHeight="1" s="20">
+    <row r="61" ht="30" customHeight="1" s="19">
       <c r="A61" s="17" t="n"/>
       <c r="B61" s="17" t="inlineStr">
         <is>
@@ -3754,7 +3755,7 @@
       <c r="O61" s="17" t="n"/>
       <c r="P61" s="17" t="n"/>
     </row>
-    <row r="62" ht="30" customHeight="1" s="20">
+    <row r="62" ht="30" customHeight="1" s="19">
       <c r="A62" s="17" t="n"/>
       <c r="B62" s="17" t="inlineStr">
         <is>
@@ -3826,7 +3827,7 @@
       <c r="O63" s="17" t="n"/>
       <c r="P63" s="17" t="n"/>
     </row>
-    <row r="64" ht="30" customHeight="1" s="20">
+    <row r="64" ht="30" customHeight="1" s="19">
       <c r="A64" s="17" t="n"/>
       <c r="B64" s="17" t="inlineStr">
         <is>
@@ -3862,7 +3863,7 @@
       <c r="O64" s="17" t="n"/>
       <c r="P64" s="17" t="n"/>
     </row>
-    <row r="65" ht="22.5" customHeight="1" s="20">
+    <row r="65" ht="22.5" customHeight="1" s="19">
       <c r="A65" s="17" t="n"/>
       <c r="B65" s="1" t="inlineStr">
         <is>
@@ -3898,7 +3899,7 @@
       <c r="O65" s="17" t="n"/>
       <c r="P65" s="17" t="n"/>
     </row>
-    <row r="66" ht="30" customHeight="1" s="20">
+    <row r="66" ht="30" customHeight="1" s="19">
       <c r="A66" s="17" t="n">
         <v>4</v>
       </c>
@@ -3938,7 +3939,7 @@
       <c r="O66" s="17" t="n"/>
       <c r="P66" s="17" t="n"/>
     </row>
-    <row r="67" ht="30" customHeight="1" s="20">
+    <row r="67" ht="30" customHeight="1" s="19">
       <c r="A67" s="17" t="n"/>
       <c r="B67" s="17" t="inlineStr">
         <is>
@@ -3976,7 +3977,7 @@
       <c r="O67" s="17" t="n"/>
       <c r="P67" s="17" t="n"/>
     </row>
-    <row r="68" ht="30" customHeight="1" s="20">
+    <row r="68" ht="30" customHeight="1" s="19">
       <c r="A68" s="17" t="n"/>
       <c r="B68" s="17" t="inlineStr">
         <is>
@@ -4012,7 +4013,7 @@
       <c r="O68" s="17" t="n"/>
       <c r="P68" s="17" t="n"/>
     </row>
-    <row r="69" ht="30" customHeight="1" s="20">
+    <row r="69" ht="30" customHeight="1" s="19">
       <c r="A69" s="17" t="n"/>
       <c r="B69" s="1" t="inlineStr">
         <is>
@@ -4048,7 +4049,7 @@
       <c r="O69" s="17" t="n"/>
       <c r="P69" s="17" t="n"/>
     </row>
-    <row r="70" ht="30" customHeight="1" s="20">
+    <row r="70" ht="30" customHeight="1" s="19">
       <c r="A70" s="17" t="n"/>
       <c r="B70" s="17" t="inlineStr">
         <is>
@@ -4086,7 +4087,7 @@
       <c r="O70" s="17" t="n"/>
       <c r="P70" s="17" t="n"/>
     </row>
-    <row r="71" ht="30" customHeight="1" s="20">
+    <row r="71" ht="30" customHeight="1" s="19">
       <c r="A71" s="17" t="n"/>
       <c r="B71" s="17" t="inlineStr">
         <is>
@@ -4122,7 +4123,7 @@
       <c r="O71" s="17" t="n"/>
       <c r="P71" s="17" t="n"/>
     </row>
-    <row r="72" ht="30" customHeight="1" s="20">
+    <row r="72" ht="30" customHeight="1" s="19">
       <c r="A72" s="17" t="n"/>
       <c r="B72" s="17" t="inlineStr">
         <is>
@@ -4158,7 +4159,7 @@
       <c r="O72" s="17" t="n"/>
       <c r="P72" s="17" t="n"/>
     </row>
-    <row r="73" ht="30" customHeight="1" s="20">
+    <row r="73" ht="30" customHeight="1" s="19">
       <c r="A73" s="17" t="n"/>
       <c r="B73" s="1" t="inlineStr">
         <is>
@@ -4196,7 +4197,7 @@
       <c r="O73" s="17" t="n"/>
       <c r="P73" s="17" t="n"/>
     </row>
-    <row r="74" ht="30" customHeight="1" s="20">
+    <row r="74" ht="30" customHeight="1" s="19">
       <c r="A74" s="17" t="n"/>
       <c r="B74" s="17" t="inlineStr">
         <is>
@@ -4232,7 +4233,7 @@
       <c r="O74" s="17" t="n"/>
       <c r="P74" s="17" t="n"/>
     </row>
-    <row r="75" ht="30" customHeight="1" s="20">
+    <row r="75" ht="30" customHeight="1" s="19">
       <c r="A75" s="17" t="n"/>
       <c r="B75" s="17" t="inlineStr">
         <is>
@@ -4268,7 +4269,7 @@
       <c r="O75" s="17" t="n"/>
       <c r="P75" s="17" t="n"/>
     </row>
-    <row r="76" ht="30" customHeight="1" s="20">
+    <row r="76" ht="30" customHeight="1" s="19">
       <c r="A76" s="17" t="n"/>
       <c r="B76" s="17" t="inlineStr">
         <is>
@@ -4304,7 +4305,7 @@
       <c r="O76" s="17" t="n"/>
       <c r="P76" s="17" t="n"/>
     </row>
-    <row r="77" ht="30" customHeight="1" s="20">
+    <row r="77" ht="30" customHeight="1" s="19">
       <c r="A77" s="17" t="n"/>
       <c r="B77" s="17" t="inlineStr">
         <is>
@@ -4340,7 +4341,7 @@
       <c r="O77" s="17" t="n"/>
       <c r="P77" s="17" t="n"/>
     </row>
-    <row r="78" ht="30" customHeight="1" s="20">
+    <row r="78" ht="30" customHeight="1" s="19">
       <c r="A78" s="17" t="n"/>
       <c r="B78" s="17" t="inlineStr">
         <is>
@@ -4376,7 +4377,7 @@
       <c r="O78" s="17" t="n"/>
       <c r="P78" s="17" t="n"/>
     </row>
-    <row r="79" ht="30" customHeight="1" s="20">
+    <row r="79" ht="30" customHeight="1" s="19">
       <c r="A79" s="17" t="n"/>
       <c r="B79" s="17" t="inlineStr">
         <is>
@@ -4414,7 +4415,7 @@
       <c r="O79" s="17" t="n"/>
       <c r="P79" s="17" t="n"/>
     </row>
-    <row r="80" ht="30" customHeight="1" s="20">
+    <row r="80" ht="30" customHeight="1" s="19">
       <c r="A80" s="17" t="n"/>
       <c r="B80" s="17" t="inlineStr">
         <is>
@@ -4450,7 +4451,7 @@
       <c r="O80" s="17" t="n"/>
       <c r="P80" s="17" t="n"/>
     </row>
-    <row r="81" ht="30" customHeight="1" s="20">
+    <row r="81" ht="30" customHeight="1" s="19">
       <c r="A81" s="17" t="n"/>
       <c r="B81" s="17" t="inlineStr">
         <is>
@@ -4486,7 +4487,7 @@
       <c r="O81" s="17" t="n"/>
       <c r="P81" s="17" t="n"/>
     </row>
-    <row r="82" ht="30" customHeight="1" s="20">
+    <row r="82" ht="30" customHeight="1" s="19">
       <c r="A82" s="17" t="n"/>
       <c r="B82" s="17" t="inlineStr">
         <is>
@@ -4522,7 +4523,7 @@
       <c r="O82" s="17" t="n"/>
       <c r="P82" s="17" t="n"/>
     </row>
-    <row r="83" ht="30" customHeight="1" s="20">
+    <row r="83" ht="30" customHeight="1" s="19">
       <c r="A83" s="17" t="n"/>
       <c r="B83" s="17" t="inlineStr">
         <is>
@@ -4558,7 +4559,7 @@
       <c r="O83" s="17" t="n"/>
       <c r="P83" s="17" t="n"/>
     </row>
-    <row r="84" ht="30" customHeight="1" s="20">
+    <row r="84" ht="30" customHeight="1" s="19">
       <c r="A84" s="17" t="n"/>
       <c r="B84" s="17" t="inlineStr">
         <is>
@@ -4594,7 +4595,7 @@
       <c r="O84" s="17" t="n"/>
       <c r="P84" s="17" t="n"/>
     </row>
-    <row r="85" ht="30" customHeight="1" s="20">
+    <row r="85" ht="30" customHeight="1" s="19">
       <c r="A85" s="17" t="n"/>
       <c r="B85" s="1" t="inlineStr">
         <is>
@@ -4628,7 +4629,7 @@
       <c r="O85" s="17" t="n"/>
       <c r="P85" s="17" t="n"/>
     </row>
-    <row r="86" ht="30" customHeight="1" s="20">
+    <row r="86" ht="30" customHeight="1" s="19">
       <c r="A86" s="17" t="n"/>
       <c r="B86" s="17" t="inlineStr">
         <is>
@@ -4664,7 +4665,7 @@
       <c r="O86" s="17" t="n"/>
       <c r="P86" s="17" t="n"/>
     </row>
-    <row r="87" ht="30" customHeight="1" s="20">
+    <row r="87" ht="30" customHeight="1" s="19">
       <c r="A87" s="17" t="n"/>
       <c r="B87" s="17" t="inlineStr">
         <is>
@@ -4700,7 +4701,7 @@
       <c r="O87" s="17" t="n"/>
       <c r="P87" s="17" t="n"/>
     </row>
-    <row r="88" ht="30" customHeight="1" s="20">
+    <row r="88" ht="30" customHeight="1" s="19">
       <c r="A88" s="17" t="n"/>
       <c r="B88" s="17" t="inlineStr">
         <is>
@@ -4736,7 +4737,7 @@
       <c r="O88" s="17" t="n"/>
       <c r="P88" s="17" t="n"/>
     </row>
-    <row r="89" ht="45" customHeight="1" s="20">
+    <row r="89" ht="45" customHeight="1" s="19">
       <c r="A89" s="17" t="n"/>
       <c r="B89" s="17" t="inlineStr">
         <is>
@@ -4774,7 +4775,7 @@
       <c r="O89" s="17" t="n"/>
       <c r="P89" s="17" t="n"/>
     </row>
-    <row r="90" ht="30" customHeight="1" s="20">
+    <row r="90" ht="30" customHeight="1" s="19">
       <c r="A90" s="17" t="n"/>
       <c r="B90" s="17" t="inlineStr">
         <is>
@@ -4810,7 +4811,7 @@
       <c r="O90" s="17" t="n"/>
       <c r="P90" s="17" t="n"/>
     </row>
-    <row r="91" ht="30" customHeight="1" s="20">
+    <row r="91" ht="30" customHeight="1" s="19">
       <c r="A91" s="17" t="n"/>
       <c r="B91" s="17" t="inlineStr">
         <is>
@@ -4846,7 +4847,7 @@
       <c r="O91" s="17" t="n"/>
       <c r="P91" s="17" t="n"/>
     </row>
-    <row r="92" ht="30" customHeight="1" s="20">
+    <row r="92" ht="30" customHeight="1" s="19">
       <c r="A92" s="17" t="n"/>
       <c r="B92" s="17" t="inlineStr">
         <is>
@@ -4882,7 +4883,7 @@
       <c r="O92" s="17" t="n"/>
       <c r="P92" s="17" t="n"/>
     </row>
-    <row r="93" ht="30" customHeight="1" s="20">
+    <row r="93" ht="30" customHeight="1" s="19">
       <c r="A93" s="17" t="n"/>
       <c r="B93" s="17" t="inlineStr">
         <is>
@@ -4918,7 +4919,7 @@
       <c r="O93" s="17" t="n"/>
       <c r="P93" s="17" t="n"/>
     </row>
-    <row r="94" ht="30" customHeight="1" s="20">
+    <row r="94" ht="30" customHeight="1" s="19">
       <c r="A94" s="17" t="n"/>
       <c r="B94" s="17" t="inlineStr">
         <is>
@@ -4954,7 +4955,7 @@
       <c r="O94" s="17" t="n"/>
       <c r="P94" s="17" t="n"/>
     </row>
-    <row r="95" ht="30" customHeight="1" s="20">
+    <row r="95" ht="30" customHeight="1" s="19">
       <c r="A95" s="17" t="n"/>
       <c r="B95" s="17" t="inlineStr">
         <is>
@@ -4990,7 +4991,7 @@
       <c r="O95" s="17" t="n"/>
       <c r="P95" s="17" t="n"/>
     </row>
-    <row r="96" ht="30" customHeight="1" s="20">
+    <row r="96" ht="30" customHeight="1" s="19">
       <c r="A96" s="17" t="n"/>
       <c r="B96" s="17" t="inlineStr">
         <is>
@@ -5066,7 +5067,7 @@
       <c r="O97" s="17" t="n"/>
       <c r="P97" s="17" t="n"/>
     </row>
-    <row r="98" ht="30" customHeight="1" s="20">
+    <row r="98" ht="30" customHeight="1" s="19">
       <c r="A98" s="17" t="n">
         <v>3</v>
       </c>
@@ -5106,7 +5107,7 @@
       <c r="O98" s="17" t="n"/>
       <c r="P98" s="17" t="n"/>
     </row>
-    <row r="99" ht="30" customHeight="1" s="20">
+    <row r="99" ht="30" customHeight="1" s="19">
       <c r="A99" s="17" t="n"/>
       <c r="B99" s="17" t="inlineStr">
         <is>
@@ -5146,7 +5147,7 @@
       <c r="O99" s="17" t="n"/>
       <c r="P99" s="17" t="n"/>
     </row>
-    <row r="100" ht="30" customHeight="1" s="20">
+    <row r="100" ht="30" customHeight="1" s="19">
       <c r="A100" s="17" t="n"/>
       <c r="B100" s="17" t="inlineStr">
         <is>
@@ -5182,7 +5183,7 @@
       <c r="O100" s="17" t="n"/>
       <c r="P100" s="17" t="n"/>
     </row>
-    <row r="101" ht="30" customHeight="1" s="20">
+    <row r="101" ht="30" customHeight="1" s="19">
       <c r="A101" s="17" t="n"/>
       <c r="B101" s="17" t="inlineStr">
         <is>
@@ -5254,7 +5255,7 @@
       <c r="O102" s="17" t="n"/>
       <c r="P102" s="17" t="n"/>
     </row>
-    <row r="103" ht="30" customHeight="1" s="20">
+    <row r="103" ht="30" customHeight="1" s="19">
       <c r="A103" s="17" t="n"/>
       <c r="B103" s="17" t="inlineStr">
         <is>
@@ -5290,7 +5291,7 @@
       <c r="O103" s="17" t="n"/>
       <c r="P103" s="17" t="n"/>
     </row>
-    <row r="104" ht="30" customHeight="1" s="20">
+    <row r="104" ht="30" customHeight="1" s="19">
       <c r="A104" s="17" t="n"/>
       <c r="B104" s="17" t="inlineStr">
         <is>
@@ -5364,7 +5365,7 @@
       <c r="O105" s="17" t="n"/>
       <c r="P105" s="17" t="n"/>
     </row>
-    <row r="106" ht="30" customHeight="1" s="20">
+    <row r="106" ht="30" customHeight="1" s="19">
       <c r="A106" s="17" t="n"/>
       <c r="B106" s="17" t="inlineStr">
         <is>
@@ -5400,7 +5401,7 @@
       <c r="O106" s="17" t="n"/>
       <c r="P106" s="17" t="n"/>
     </row>
-    <row r="107" ht="30" customHeight="1" s="20">
+    <row r="107" ht="30" customHeight="1" s="19">
       <c r="A107" s="17" t="n"/>
       <c r="B107" s="17" t="inlineStr">
         <is>
@@ -5436,7 +5437,7 @@
       <c r="O107" s="17" t="n"/>
       <c r="P107" s="17" t="n"/>
     </row>
-    <row r="108" ht="30" customHeight="1" s="20">
+    <row r="108" ht="30" customHeight="1" s="19">
       <c r="A108" s="17" t="n"/>
       <c r="B108" s="17" t="inlineStr">
         <is>
@@ -5472,7 +5473,7 @@
       <c r="O108" s="17" t="n"/>
       <c r="P108" s="17" t="n"/>
     </row>
-    <row r="109" ht="30" customHeight="1" s="20">
+    <row r="109" ht="30" customHeight="1" s="19">
       <c r="A109" s="17" t="n"/>
       <c r="B109" s="17" t="inlineStr">
         <is>
@@ -5508,7 +5509,7 @@
       <c r="O109" s="17" t="n"/>
       <c r="P109" s="17" t="n"/>
     </row>
-    <row r="110" ht="30" customHeight="1" s="20">
+    <row r="110" ht="30" customHeight="1" s="19">
       <c r="A110" s="17" t="n"/>
       <c r="B110" s="17" t="inlineStr">
         <is>
@@ -5544,7 +5545,7 @@
       <c r="O110" s="17" t="n"/>
       <c r="P110" s="17" t="n"/>
     </row>
-    <row r="111" ht="30" customHeight="1" s="20">
+    <row r="111" ht="30" customHeight="1" s="19">
       <c r="A111" s="17" t="n"/>
       <c r="B111" s="17" t="inlineStr">
         <is>
@@ -5580,7 +5581,7 @@
       <c r="O111" s="17" t="n"/>
       <c r="P111" s="17" t="n"/>
     </row>
-    <row r="112" ht="30" customHeight="1" s="20">
+    <row r="112" ht="30" customHeight="1" s="19">
       <c r="A112" s="17" t="n"/>
       <c r="B112" s="17" t="inlineStr">
         <is>
@@ -5616,7 +5617,7 @@
       <c r="O112" s="17" t="n"/>
       <c r="P112" s="17" t="n"/>
     </row>
-    <row r="113" ht="30" customHeight="1" s="20">
+    <row r="113" ht="30" customHeight="1" s="19">
       <c r="A113" s="17" t="n"/>
       <c r="B113" s="17" t="inlineStr">
         <is>
@@ -5688,7 +5689,7 @@
       <c r="O114" s="17" t="n"/>
       <c r="P114" s="17" t="n"/>
     </row>
-    <row r="115" ht="30" customHeight="1" s="20">
+    <row r="115" ht="30" customHeight="1" s="19">
       <c r="A115" s="17" t="n"/>
       <c r="B115" s="17" t="inlineStr">
         <is>
@@ -5802,7 +5803,7 @@
       <c r="O117" s="17" t="n"/>
       <c r="P117" s="17" t="n"/>
     </row>
-    <row r="118" ht="30" customHeight="1" s="20">
+    <row r="118" ht="30" customHeight="1" s="19">
       <c r="A118" s="17" t="n"/>
       <c r="B118" s="17" t="inlineStr">
         <is>
@@ -5838,7 +5839,7 @@
       <c r="O118" s="17" t="n"/>
       <c r="P118" s="17" t="n"/>
     </row>
-    <row r="119" ht="30" customHeight="1" s="20">
+    <row r="119" ht="30" customHeight="1" s="19">
       <c r="A119" s="17" t="n"/>
       <c r="B119" s="17" t="inlineStr">
         <is>
@@ -5874,7 +5875,7 @@
       <c r="O119" s="17" t="n"/>
       <c r="P119" s="17" t="n"/>
     </row>
-    <row r="120" ht="45" customHeight="1" s="20">
+    <row r="120" ht="45" customHeight="1" s="19">
       <c r="A120" s="17" t="n"/>
       <c r="B120" s="17" t="inlineStr">
         <is>
@@ -5910,7 +5911,7 @@
       <c r="O120" s="17" t="n"/>
       <c r="P120" s="17" t="n"/>
     </row>
-    <row r="121" ht="45" customHeight="1" s="20">
+    <row r="121" ht="45" customHeight="1" s="19">
       <c r="A121" s="17" t="n"/>
       <c r="B121" s="1" t="inlineStr">
         <is>
@@ -5948,7 +5949,7 @@
       <c r="O121" s="17" t="n"/>
       <c r="P121" s="17" t="n"/>
     </row>
-    <row r="122" ht="30" customHeight="1" s="20">
+    <row r="122" ht="30" customHeight="1" s="19">
       <c r="A122" s="17" t="n"/>
       <c r="B122" s="17" t="inlineStr">
         <is>
@@ -5984,7 +5985,7 @@
       <c r="O122" s="17" t="n"/>
       <c r="P122" s="17" t="n"/>
     </row>
-    <row r="123" ht="30" customHeight="1" s="20">
+    <row r="123" ht="30" customHeight="1" s="19">
       <c r="A123" s="17" t="n"/>
       <c r="B123" s="17" t="inlineStr">
         <is>
@@ -6020,7 +6021,7 @@
       <c r="O123" s="17" t="n"/>
       <c r="P123" s="17" t="n"/>
     </row>
-    <row r="124" ht="30" customHeight="1" s="20">
+    <row r="124" ht="30" customHeight="1" s="19">
       <c r="A124" s="17" t="n">
         <v>1</v>
       </c>
@@ -6060,7 +6061,7 @@
       <c r="O124" s="17" t="n"/>
       <c r="P124" s="17" t="n"/>
     </row>
-    <row r="125" ht="30" customHeight="1" s="20">
+    <row r="125" ht="30" customHeight="1" s="19">
       <c r="A125" s="17" t="n"/>
       <c r="B125" s="17" t="inlineStr">
         <is>
@@ -6098,7 +6099,7 @@
       <c r="O125" s="17" t="n"/>
       <c r="P125" s="17" t="n"/>
     </row>
-    <row r="126" ht="30" customHeight="1" s="20">
+    <row r="126" ht="30" customHeight="1" s="19">
       <c r="A126" s="17" t="n"/>
       <c r="B126" s="1" t="inlineStr">
         <is>
@@ -6132,7 +6133,7 @@
       <c r="O126" s="17" t="n"/>
       <c r="P126" s="17" t="n"/>
     </row>
-    <row r="127" ht="30" customHeight="1" s="20">
+    <row r="127" ht="30" customHeight="1" s="19">
       <c r="A127" s="17" t="n"/>
       <c r="B127" s="1" t="inlineStr">
         <is>
@@ -6166,7 +6167,7 @@
       <c r="O127" s="17" t="n"/>
       <c r="P127" s="17" t="n"/>
     </row>
-    <row r="128" ht="30" customHeight="1" s="20">
+    <row r="128" ht="30" customHeight="1" s="19">
       <c r="A128" s="17" t="n"/>
       <c r="B128" s="1" t="inlineStr">
         <is>
@@ -6200,7 +6201,7 @@
       <c r="O128" s="17" t="n"/>
       <c r="P128" s="17" t="n"/>
     </row>
-    <row r="129" ht="30" customHeight="1" s="20">
+    <row r="129" ht="30" customHeight="1" s="19">
       <c r="A129" s="17" t="n"/>
       <c r="B129" s="17" t="inlineStr">
         <is>
@@ -6236,7 +6237,7 @@
       <c r="O129" s="17" t="n"/>
       <c r="P129" s="17" t="n"/>
     </row>
-    <row r="130" ht="30" customHeight="1" s="20">
+    <row r="130" ht="30" customHeight="1" s="19">
       <c r="A130" s="17" t="n"/>
       <c r="B130" s="17" t="inlineStr">
         <is>
@@ -6272,7 +6273,7 @@
       <c r="O130" s="17" t="n"/>
       <c r="P130" s="17" t="n"/>
     </row>
-    <row r="131" ht="30" customHeight="1" s="20">
+    <row r="131" ht="30" customHeight="1" s="19">
       <c r="A131" s="17" t="n"/>
       <c r="B131" s="17" t="inlineStr">
         <is>
@@ -6308,7 +6309,7 @@
       <c r="O131" s="17" t="n"/>
       <c r="P131" s="17" t="n"/>
     </row>
-    <row r="132" ht="30" customHeight="1" s="20">
+    <row r="132" ht="30" customHeight="1" s="19">
       <c r="A132" s="17" t="n"/>
       <c r="B132" s="1" t="inlineStr">
         <is>
@@ -6342,7 +6343,7 @@
       <c r="O132" s="17" t="n"/>
       <c r="P132" s="17" t="n"/>
     </row>
-    <row r="133" ht="30" customHeight="1" s="20">
+    <row r="133" ht="30" customHeight="1" s="19">
       <c r="A133" s="17" t="n"/>
       <c r="B133" s="1" t="inlineStr">
         <is>
@@ -6382,7 +6383,7 @@
       <c r="O133" s="17" t="n"/>
       <c r="P133" s="17" t="n"/>
     </row>
-    <row r="134" ht="30" customHeight="1" s="20">
+    <row r="134" ht="30" customHeight="1" s="19">
       <c r="A134" s="17" t="n"/>
       <c r="B134" s="17" t="inlineStr">
         <is>
@@ -6418,7 +6419,7 @@
       <c r="O134" s="17" t="n"/>
       <c r="P134" s="17" t="n"/>
     </row>
-    <row r="135" ht="30" customHeight="1" s="20">
+    <row r="135" ht="30" customHeight="1" s="19">
       <c r="A135" s="17" t="n"/>
       <c r="B135" s="17" t="inlineStr">
         <is>
@@ -6454,7 +6455,7 @@
       <c r="O135" s="17" t="n"/>
       <c r="P135" s="17" t="n"/>
     </row>
-    <row r="136" ht="30" customHeight="1" s="20">
+    <row r="136" ht="30" customHeight="1" s="19">
       <c r="A136" s="17" t="n"/>
       <c r="B136" s="17" t="inlineStr">
         <is>
@@ -6490,7 +6491,7 @@
       <c r="O136" s="17" t="n"/>
       <c r="P136" s="17" t="n"/>
     </row>
-    <row r="137" ht="30" customHeight="1" s="20">
+    <row r="137" ht="30" customHeight="1" s="19">
       <c r="A137" s="17" t="n"/>
       <c r="B137" s="1" t="inlineStr">
         <is>
@@ -6526,7 +6527,7 @@
       <c r="O137" s="17" t="n"/>
       <c r="P137" s="17" t="n"/>
     </row>
-    <row r="138" ht="30" customHeight="1" s="20">
+    <row r="138" ht="30" customHeight="1" s="19">
       <c r="A138" s="17" t="n"/>
       <c r="B138" s="17" t="inlineStr">
         <is>
@@ -6562,7 +6563,7 @@
       <c r="O138" s="17" t="n"/>
       <c r="P138" s="17" t="n"/>
     </row>
-    <row r="139" ht="30" customHeight="1" s="20">
+    <row r="139" ht="30" customHeight="1" s="19">
       <c r="A139" s="17" t="n"/>
       <c r="B139" s="17" t="inlineStr">
         <is>
@@ -6598,7 +6599,7 @@
       <c r="O139" s="17" t="n"/>
       <c r="P139" s="17" t="n"/>
     </row>
-    <row r="140" ht="30" customHeight="1" s="20">
+    <row r="140" ht="30" customHeight="1" s="19">
       <c r="A140" s="17" t="n"/>
       <c r="B140" s="17" t="inlineStr">
         <is>
@@ -6634,7 +6635,7 @@
       <c r="O140" s="17" t="n"/>
       <c r="P140" s="17" t="n"/>
     </row>
-    <row r="141" ht="30" customHeight="1" s="20">
+    <row r="141" ht="30" customHeight="1" s="19">
       <c r="A141" s="17" t="n"/>
       <c r="B141" s="17" t="inlineStr">
         <is>
@@ -6672,7 +6673,7 @@
       <c r="O141" s="17" t="n"/>
       <c r="P141" s="17" t="n"/>
     </row>
-    <row r="142" ht="30" customHeight="1" s="20">
+    <row r="142" ht="30" customHeight="1" s="19">
       <c r="A142" s="17" t="n"/>
       <c r="B142" s="17" t="inlineStr">
         <is>
@@ -6710,7 +6711,7 @@
       <c r="O142" s="17" t="n"/>
       <c r="P142" s="17" t="n"/>
     </row>
-    <row r="143" ht="30" customHeight="1" s="20">
+    <row r="143" ht="30" customHeight="1" s="19">
       <c r="A143" s="17" t="n"/>
       <c r="B143" s="17" t="inlineStr">
         <is>
@@ -6748,7 +6749,7 @@
       <c r="O143" s="17" t="n"/>
       <c r="P143" s="17" t="n"/>
     </row>
-    <row r="144" ht="30" customHeight="1" s="20">
+    <row r="144" ht="30" customHeight="1" s="19">
       <c r="A144" s="17" t="n"/>
       <c r="B144" s="17" t="inlineStr">
         <is>
@@ -6786,7 +6787,7 @@
       <c r="O144" s="17" t="n"/>
       <c r="P144" s="17" t="n"/>
     </row>
-    <row r="145" ht="30" customHeight="1" s="20">
+    <row r="145" ht="30" customHeight="1" s="19">
       <c r="A145" s="17" t="n"/>
       <c r="B145" s="17" t="inlineStr">
         <is>
@@ -6824,7 +6825,7 @@
       <c r="O145" s="17" t="n"/>
       <c r="P145" s="17" t="n"/>
     </row>
-    <row r="146" ht="30" customHeight="1" s="20">
+    <row r="146" ht="30" customHeight="1" s="19">
       <c r="A146" s="17" t="n"/>
       <c r="B146" s="17" t="inlineStr">
         <is>
@@ -6862,7 +6863,7 @@
       <c r="O146" s="17" t="n"/>
       <c r="P146" s="17" t="n"/>
     </row>
-    <row r="147" ht="30" customHeight="1" s="20">
+    <row r="147" ht="30" customHeight="1" s="19">
       <c r="A147" s="17" t="n"/>
       <c r="B147" s="17" t="inlineStr">
         <is>
@@ -6898,7 +6899,7 @@
       <c r="O147" s="17" t="n"/>
       <c r="P147" s="17" t="n"/>
     </row>
-    <row r="148" ht="30" customHeight="1" s="20">
+    <row r="148" ht="30" customHeight="1" s="19">
       <c r="A148" s="17" t="n"/>
       <c r="B148" s="17" t="inlineStr">
         <is>
@@ -6934,7 +6935,7 @@
       <c r="O148" s="17" t="n"/>
       <c r="P148" s="17" t="n"/>
     </row>
-    <row r="149" ht="30" customHeight="1" s="20">
+    <row r="149" ht="30" customHeight="1" s="19">
       <c r="A149" s="17" t="n"/>
       <c r="B149" s="17" t="inlineStr">
         <is>
@@ -6970,7 +6971,7 @@
       <c r="O149" s="17" t="n"/>
       <c r="P149" s="17" t="n"/>
     </row>
-    <row r="150" ht="30" customHeight="1" s="20">
+    <row r="150" ht="30" customHeight="1" s="19">
       <c r="A150" s="17" t="n"/>
       <c r="B150" s="17" t="inlineStr">
         <is>
@@ -7006,7 +7007,7 @@
       <c r="O150" s="17" t="n"/>
       <c r="P150" s="17" t="n"/>
     </row>
-    <row r="151" ht="30" customHeight="1" s="20">
+    <row r="151" ht="30" customHeight="1" s="19">
       <c r="A151" s="17" t="n"/>
       <c r="B151" s="17" t="inlineStr">
         <is>
@@ -7078,7 +7079,7 @@
       <c r="O152" s="17" t="n"/>
       <c r="P152" s="17" t="n"/>
     </row>
-    <row r="153" ht="30" customHeight="1" s="20">
+    <row r="153" ht="30" customHeight="1" s="19">
       <c r="A153" s="17" t="n"/>
       <c r="B153" s="17" t="inlineStr">
         <is>
@@ -7114,7 +7115,7 @@
       <c r="O153" s="17" t="n"/>
       <c r="P153" s="17" t="n"/>
     </row>
-    <row r="154" ht="30" customHeight="1" s="20">
+    <row r="154" ht="30" customHeight="1" s="19">
       <c r="A154" s="17" t="n"/>
       <c r="B154" s="17" t="inlineStr">
         <is>
@@ -7152,7 +7153,7 @@
       <c r="O154" s="17" t="n"/>
       <c r="P154" s="17" t="n"/>
     </row>
-    <row r="155" ht="30" customHeight="1" s="20">
+    <row r="155" ht="30" customHeight="1" s="19">
       <c r="A155" s="17" t="n"/>
       <c r="B155" s="17" t="inlineStr">
         <is>
@@ -7188,7 +7189,7 @@
       <c r="O155" s="17" t="n"/>
       <c r="P155" s="17" t="n"/>
     </row>
-    <row r="156" ht="30" customHeight="1" s="20">
+    <row r="156" ht="30" customHeight="1" s="19">
       <c r="A156" s="17" t="n"/>
       <c r="B156" s="17" t="inlineStr">
         <is>
@@ -7224,7 +7225,7 @@
       <c r="O156" s="17" t="n"/>
       <c r="P156" s="17" t="n"/>
     </row>
-    <row r="157" ht="30" customHeight="1" s="20">
+    <row r="157" ht="30" customHeight="1" s="19">
       <c r="A157" s="17" t="n"/>
       <c r="B157" s="17" t="inlineStr">
         <is>
@@ -7262,7 +7263,7 @@
       <c r="O157" s="17" t="n"/>
       <c r="P157" s="17" t="n"/>
     </row>
-    <row r="158" ht="30" customHeight="1" s="20">
+    <row r="158" ht="30" customHeight="1" s="19">
       <c r="A158" s="17" t="n"/>
       <c r="B158" s="17" t="inlineStr">
         <is>
@@ -7298,7 +7299,7 @@
       <c r="O158" s="17" t="n"/>
       <c r="P158" s="17" t="n"/>
     </row>
-    <row r="159" ht="30" customHeight="1" s="20">
+    <row r="159" ht="30" customHeight="1" s="19">
       <c r="A159" s="17" t="n"/>
       <c r="B159" s="17" t="inlineStr">
         <is>
@@ -7334,7 +7335,7 @@
       <c r="O159" s="17" t="n"/>
       <c r="P159" s="17" t="n"/>
     </row>
-    <row r="160" ht="30" customHeight="1" s="20">
+    <row r="160" ht="30" customHeight="1" s="19">
       <c r="A160" s="17" t="n"/>
       <c r="B160" s="17" t="inlineStr">
         <is>
@@ -7370,7 +7371,7 @@
       <c r="O160" s="17" t="n"/>
       <c r="P160" s="17" t="n"/>
     </row>
-    <row r="161" ht="30" customHeight="1" s="20">
+    <row r="161" ht="30" customHeight="1" s="19">
       <c r="A161" s="17" t="n"/>
       <c r="B161" s="17" t="inlineStr">
         <is>
@@ -7406,7 +7407,7 @@
       <c r="O161" s="17" t="n"/>
       <c r="P161" s="17" t="n"/>
     </row>
-    <row r="162" ht="30" customHeight="1" s="20">
+    <row r="162" ht="30" customHeight="1" s="19">
       <c r="A162" s="17" t="n"/>
       <c r="B162" s="17" t="inlineStr">
         <is>
@@ -7442,7 +7443,7 @@
       <c r="O162" s="17" t="n"/>
       <c r="P162" s="17" t="n"/>
     </row>
-    <row r="163" ht="30" customHeight="1" s="20">
+    <row r="163" ht="30" customHeight="1" s="19">
       <c r="A163" s="17" t="n"/>
       <c r="B163" s="17" t="inlineStr">
         <is>
@@ -7478,7 +7479,7 @@
       <c r="O163" s="17" t="n"/>
       <c r="P163" s="17" t="n"/>
     </row>
-    <row r="164" ht="30" customHeight="1" s="20">
+    <row r="164" ht="30" customHeight="1" s="19">
       <c r="A164" s="17" t="n"/>
       <c r="B164" s="17" t="inlineStr">
         <is>
@@ -7514,7 +7515,7 @@
       <c r="O164" s="17" t="n"/>
       <c r="P164" s="17" t="n"/>
     </row>
-    <row r="165" ht="30" customHeight="1" s="20">
+    <row r="165" ht="30" customHeight="1" s="19">
       <c r="A165" s="17" t="n"/>
       <c r="B165" s="17" t="inlineStr">
         <is>
@@ -7550,7 +7551,7 @@
       <c r="O165" s="17" t="n"/>
       <c r="P165" s="17" t="n"/>
     </row>
-    <row r="166" ht="30" customHeight="1" s="20">
+    <row r="166" ht="30" customHeight="1" s="19">
       <c r="A166" s="17" t="n"/>
       <c r="B166" s="17" t="inlineStr">
         <is>
@@ -7586,7 +7587,7 @@
       <c r="O166" s="17" t="n"/>
       <c r="P166" s="17" t="n"/>
     </row>
-    <row r="167" ht="30" customHeight="1" s="20">
+    <row r="167" ht="30" customHeight="1" s="19">
       <c r="A167" s="17" t="n"/>
       <c r="B167" s="17" t="inlineStr">
         <is>
@@ -7622,7 +7623,7 @@
       <c r="O167" s="17" t="n"/>
       <c r="P167" s="17" t="n"/>
     </row>
-    <row r="168" ht="30" customHeight="1" s="20">
+    <row r="168" ht="30" customHeight="1" s="19">
       <c r="A168" s="17" t="n"/>
       <c r="B168" s="17" t="inlineStr">
         <is>
@@ -7658,7 +7659,7 @@
       <c r="O168" s="17" t="n"/>
       <c r="P168" s="17" t="n"/>
     </row>
-    <row r="169" ht="30" customHeight="1" s="20">
+    <row r="169" ht="30" customHeight="1" s="19">
       <c r="A169" s="17" t="n"/>
       <c r="B169" s="17" t="inlineStr">
         <is>
@@ -7694,7 +7695,7 @@
       <c r="O169" s="17" t="n"/>
       <c r="P169" s="17" t="n"/>
     </row>
-    <row r="170" ht="30" customHeight="1" s="20">
+    <row r="170" ht="30" customHeight="1" s="19">
       <c r="A170" s="17" t="n"/>
       <c r="B170" s="17" t="inlineStr">
         <is>
@@ -7730,7 +7731,7 @@
       <c r="O170" s="17" t="n"/>
       <c r="P170" s="17" t="n"/>
     </row>
-    <row r="171" ht="63" customHeight="1" s="20">
+    <row r="171" ht="63" customHeight="1" s="19">
       <c r="A171" s="17" t="n"/>
       <c r="B171" s="17" t="inlineStr">
         <is>
@@ -7802,7 +7803,7 @@
       <c r="O172" s="17" t="n"/>
       <c r="P172" s="17" t="n"/>
     </row>
-    <row r="173" ht="30" customHeight="1" s="20">
+    <row r="173" ht="30" customHeight="1" s="19">
       <c r="A173" s="17" t="n"/>
       <c r="B173" s="17" t="inlineStr">
         <is>
@@ -7838,7 +7839,7 @@
       <c r="O173" s="17" t="n"/>
       <c r="P173" s="17" t="n"/>
     </row>
-    <row r="174" ht="30" customHeight="1" s="20">
+    <row r="174" ht="30" customHeight="1" s="19">
       <c r="A174" s="17" t="n"/>
       <c r="B174" s="17" t="inlineStr">
         <is>
@@ -7874,7 +7875,7 @@
       <c r="O174" s="17" t="n"/>
       <c r="P174" s="17" t="n"/>
     </row>
-    <row r="175" ht="30" customHeight="1" s="20">
+    <row r="175" ht="30" customHeight="1" s="19">
       <c r="A175" s="17" t="n"/>
       <c r="B175" s="17" t="inlineStr">
         <is>
@@ -7912,7 +7913,7 @@
       <c r="O175" s="17" t="n"/>
       <c r="P175" s="17" t="n"/>
     </row>
-    <row r="176" ht="30" customHeight="1" s="20">
+    <row r="176" ht="30" customHeight="1" s="19">
       <c r="A176" s="17" t="n"/>
       <c r="B176" s="17" t="inlineStr">
         <is>
@@ -7988,7 +7989,7 @@
       <c r="O177" s="17" t="n"/>
       <c r="P177" s="17" t="n"/>
     </row>
-    <row r="178" ht="30" customHeight="1" s="20">
+    <row r="178" ht="30" customHeight="1" s="19">
       <c r="A178" s="17" t="n"/>
       <c r="B178" s="17" t="inlineStr">
         <is>
@@ -8024,7 +8025,7 @@
       <c r="O178" s="17" t="n"/>
       <c r="P178" s="17" t="n"/>
     </row>
-    <row r="179" ht="30" customHeight="1" s="20">
+    <row r="179" ht="30" customHeight="1" s="19">
       <c r="A179" s="17" t="n"/>
       <c r="B179" s="17" t="inlineStr">
         <is>
@@ -8170,7 +8171,7 @@
       <c r="O182" s="17" t="n"/>
       <c r="P182" s="17" t="n"/>
     </row>
-    <row r="183" ht="30" customHeight="1" s="20">
+    <row r="183" ht="30" customHeight="1" s="19">
       <c r="A183" s="17" t="n"/>
       <c r="B183" s="17" t="inlineStr">
         <is>
@@ -8208,7 +8209,7 @@
       <c r="O183" s="17" t="n"/>
       <c r="P183" s="17" t="n"/>
     </row>
-    <row r="184" ht="30" customHeight="1" s="20">
+    <row r="184" ht="30" customHeight="1" s="19">
       <c r="A184" s="17" t="n"/>
       <c r="B184" s="17" t="inlineStr">
         <is>
@@ -8244,7 +8245,7 @@
       <c r="O184" s="17" t="n"/>
       <c r="P184" s="17" t="n"/>
     </row>
-    <row r="185" ht="30" customHeight="1" s="20">
+    <row r="185" ht="30" customHeight="1" s="19">
       <c r="A185" s="17" t="n"/>
       <c r="B185" s="17" t="inlineStr">
         <is>
@@ -8282,7 +8283,7 @@
       <c r="O185" s="17" t="n"/>
       <c r="P185" s="17" t="n"/>
     </row>
-    <row r="186" ht="30" customHeight="1" s="20">
+    <row r="186" ht="30" customHeight="1" s="19">
       <c r="A186" s="17" t="n"/>
       <c r="B186" s="17" t="inlineStr">
         <is>
@@ -8318,7 +8319,7 @@
       <c r="O186" s="17" t="n"/>
       <c r="P186" s="17" t="n"/>
     </row>
-    <row r="187" ht="30" customHeight="1" s="20">
+    <row r="187" ht="30" customHeight="1" s="19">
       <c r="A187" s="17" t="n"/>
       <c r="B187" s="17" t="inlineStr">
         <is>
@@ -8354,7 +8355,7 @@
       <c r="O187" s="17" t="n"/>
       <c r="P187" s="17" t="n"/>
     </row>
-    <row r="188" ht="30" customHeight="1" s="20">
+    <row r="188" ht="30" customHeight="1" s="19">
       <c r="A188" s="17" t="n"/>
       <c r="B188" s="17" t="inlineStr">
         <is>
@@ -8392,7 +8393,7 @@
       <c r="O188" s="17" t="n"/>
       <c r="P188" s="17" t="n"/>
     </row>
-    <row r="189" ht="30" customHeight="1" s="20">
+    <row r="189" ht="30" customHeight="1" s="19">
       <c r="A189" s="17" t="n"/>
       <c r="B189" s="17" t="inlineStr">
         <is>
@@ -8428,7 +8429,7 @@
       <c r="O189" s="17" t="n"/>
       <c r="P189" s="17" t="n"/>
     </row>
-    <row r="190" ht="30" customHeight="1" s="20">
+    <row r="190" ht="30" customHeight="1" s="19">
       <c r="A190" s="17" t="n"/>
       <c r="B190" s="17" t="inlineStr">
         <is>
@@ -8464,7 +8465,7 @@
       <c r="O190" s="17" t="n"/>
       <c r="P190" s="17" t="n"/>
     </row>
-    <row r="191" ht="30" customHeight="1" s="20">
+    <row r="191" ht="30" customHeight="1" s="19">
       <c r="A191" s="17" t="n"/>
       <c r="B191" s="17" t="inlineStr">
         <is>
@@ -8502,7 +8503,7 @@
       <c r="O191" s="17" t="n"/>
       <c r="P191" s="17" t="n"/>
     </row>
-    <row r="192" ht="30" customHeight="1" s="20">
+    <row r="192" ht="30" customHeight="1" s="19">
       <c r="A192" s="17" t="n"/>
       <c r="B192" s="17" t="inlineStr">
         <is>
@@ -8540,7 +8541,7 @@
       <c r="O192" s="17" t="n"/>
       <c r="P192" s="17" t="n"/>
     </row>
-    <row r="193" ht="30" customHeight="1" s="20">
+    <row r="193" ht="30" customHeight="1" s="19">
       <c r="A193" s="17" t="n"/>
       <c r="B193" s="17" t="inlineStr">
         <is>
@@ -8576,7 +8577,7 @@
       <c r="O193" s="17" t="n"/>
       <c r="P193" s="17" t="n"/>
     </row>
-    <row r="194" ht="30" customHeight="1" s="20">
+    <row r="194" ht="30" customHeight="1" s="19">
       <c r="A194" s="17" t="n"/>
       <c r="B194" s="17" t="inlineStr">
         <is>
@@ -8612,7 +8613,7 @@
       <c r="O194" s="17" t="n"/>
       <c r="P194" s="17" t="n"/>
     </row>
-    <row r="195" ht="30" customHeight="1" s="20">
+    <row r="195" ht="30" customHeight="1" s="19">
       <c r="A195" s="17" t="n"/>
       <c r="B195" s="17" t="inlineStr">
         <is>
@@ -8648,7 +8649,7 @@
       <c r="O195" s="17" t="n"/>
       <c r="P195" s="17" t="n"/>
     </row>
-    <row r="196" ht="30" customHeight="1" s="20">
+    <row r="196" ht="30" customHeight="1" s="19">
       <c r="A196" s="17" t="n"/>
       <c r="B196" s="17" t="inlineStr">
         <is>
@@ -8686,7 +8687,7 @@
       <c r="O196" s="17" t="n"/>
       <c r="P196" s="17" t="n"/>
     </row>
-    <row r="197" ht="30" customHeight="1" s="20">
+    <row r="197" ht="30" customHeight="1" s="19">
       <c r="A197" s="17" t="n"/>
       <c r="B197" s="17" t="inlineStr">
         <is>
@@ -8722,7 +8723,7 @@
       <c r="O197" s="17" t="n"/>
       <c r="P197" s="17" t="n"/>
     </row>
-    <row r="198" ht="30" customHeight="1" s="20">
+    <row r="198" ht="30" customHeight="1" s="19">
       <c r="A198" s="17" t="n"/>
       <c r="B198" s="17" t="inlineStr">
         <is>
@@ -8758,7 +8759,7 @@
       <c r="O198" s="17" t="n"/>
       <c r="P198" s="17" t="n"/>
     </row>
-    <row r="199" ht="30" customHeight="1" s="20">
+    <row r="199" ht="30" customHeight="1" s="19">
       <c r="A199" s="17" t="n"/>
       <c r="B199" s="17" t="inlineStr">
         <is>
@@ -8794,7 +8795,7 @@
       <c r="O199" s="17" t="n"/>
       <c r="P199" s="17" t="n"/>
     </row>
-    <row r="200" ht="30" customHeight="1" s="20">
+    <row r="200" ht="30" customHeight="1" s="19">
       <c r="A200" s="17" t="n"/>
       <c r="B200" s="17" t="inlineStr">
         <is>
@@ -8830,7 +8831,7 @@
       <c r="O200" s="17" t="n"/>
       <c r="P200" s="17" t="n"/>
     </row>
-    <row r="201" ht="30" customHeight="1" s="20">
+    <row r="201" ht="30" customHeight="1" s="19">
       <c r="A201" s="17" t="n"/>
       <c r="B201" s="17" t="inlineStr">
         <is>
@@ -8866,7 +8867,7 @@
       <c r="O201" s="17" t="n"/>
       <c r="P201" s="17" t="n"/>
     </row>
-    <row r="202" ht="30" customHeight="1" s="20">
+    <row r="202" ht="30" customHeight="1" s="19">
       <c r="A202" s="17" t="n"/>
       <c r="B202" s="17" t="inlineStr">
         <is>
@@ -8902,7 +8903,7 @@
       <c r="O202" s="17" t="n"/>
       <c r="P202" s="17" t="n"/>
     </row>
-    <row r="203" ht="30" customHeight="1" s="20">
+    <row r="203" ht="30" customHeight="1" s="19">
       <c r="A203" s="17" t="n"/>
       <c r="B203" s="17" t="inlineStr">
         <is>
@@ -8938,7 +8939,7 @@
       <c r="O203" s="17" t="n"/>
       <c r="P203" s="17" t="n"/>
     </row>
-    <row r="204" ht="30" customHeight="1" s="20">
+    <row r="204" ht="30" customHeight="1" s="19">
       <c r="A204" s="17" t="n"/>
       <c r="B204" s="17" t="inlineStr">
         <is>
@@ -8974,7 +8975,7 @@
       <c r="O204" s="17" t="n"/>
       <c r="P204" s="17" t="n"/>
     </row>
-    <row r="205" ht="75" customHeight="1" s="20">
+    <row r="205" ht="75" customHeight="1" s="19">
       <c r="A205" s="17" t="n"/>
       <c r="B205" s="17" t="inlineStr">
         <is>
@@ -9010,7 +9011,7 @@
       <c r="O205" s="17" t="n"/>
       <c r="P205" s="17" t="n"/>
     </row>
-    <row r="206" ht="30" customHeight="1" s="20">
+    <row r="206" ht="30" customHeight="1" s="19">
       <c r="A206" s="17" t="n"/>
       <c r="B206" s="17" t="inlineStr">
         <is>
@@ -9046,7 +9047,7 @@
       <c r="O206" s="17" t="n"/>
       <c r="P206" s="17" t="n"/>
     </row>
-    <row r="207" ht="30" customHeight="1" s="20">
+    <row r="207" ht="30" customHeight="1" s="19">
       <c r="A207" s="17" t="n"/>
       <c r="B207" s="17" t="inlineStr">
         <is>
@@ -9082,7 +9083,7 @@
       <c r="O207" s="17" t="n"/>
       <c r="P207" s="17" t="n"/>
     </row>
-    <row r="208" ht="30" customHeight="1" s="20">
+    <row r="208" ht="30" customHeight="1" s="19">
       <c r="A208" s="17" t="n"/>
       <c r="B208" s="17" t="inlineStr">
         <is>
@@ -9118,7 +9119,7 @@
       <c r="O208" s="17" t="n"/>
       <c r="P208" s="17" t="n"/>
     </row>
-    <row r="209" ht="30" customHeight="1" s="20">
+    <row r="209" ht="30" customHeight="1" s="19">
       <c r="A209" s="17" t="n"/>
       <c r="B209" s="17" t="inlineStr">
         <is>
@@ -9156,7 +9157,7 @@
       <c r="O209" s="17" t="n"/>
       <c r="P209" s="17" t="n"/>
     </row>
-    <row r="210" ht="30" customHeight="1" s="20">
+    <row r="210" ht="30" customHeight="1" s="19">
       <c r="A210" s="17" t="n"/>
       <c r="B210" s="17" t="inlineStr">
         <is>
@@ -9192,7 +9193,7 @@
       <c r="O210" s="17" t="n"/>
       <c r="P210" s="17" t="n"/>
     </row>
-    <row r="211" ht="30" customHeight="1" s="20">
+    <row r="211" ht="30" customHeight="1" s="19">
       <c r="A211" s="17" t="n"/>
       <c r="B211" s="17" t="inlineStr">
         <is>
@@ -9228,7 +9229,7 @@
       <c r="O211" s="17" t="n"/>
       <c r="P211" s="17" t="n"/>
     </row>
-    <row r="212" ht="30" customHeight="1" s="20">
+    <row r="212" ht="30" customHeight="1" s="19">
       <c r="A212" s="17" t="n"/>
       <c r="B212" s="17" t="inlineStr">
         <is>
@@ -9264,7 +9265,7 @@
       <c r="O212" s="17" t="n"/>
       <c r="P212" s="17" t="n"/>
     </row>
-    <row r="213" ht="30" customHeight="1" s="20">
+    <row r="213" ht="30" customHeight="1" s="19">
       <c r="A213" s="17" t="n"/>
       <c r="B213" s="17" t="inlineStr">
         <is>
@@ -9300,7 +9301,7 @@
       <c r="O213" s="17" t="n"/>
       <c r="P213" s="17" t="n"/>
     </row>
-    <row r="214" ht="30" customHeight="1" s="20">
+    <row r="214" ht="30" customHeight="1" s="19">
       <c r="A214" s="17" t="n"/>
       <c r="B214" s="17" t="inlineStr">
         <is>
@@ -9336,7 +9337,7 @@
       <c r="O214" s="17" t="n"/>
       <c r="P214" s="17" t="n"/>
     </row>
-    <row r="215" ht="30" customHeight="1" s="20">
+    <row r="215" ht="30" customHeight="1" s="19">
       <c r="A215" s="17" t="n"/>
       <c r="B215" s="17" t="inlineStr">
         <is>
@@ -9372,7 +9373,7 @@
       <c r="O215" s="17" t="n"/>
       <c r="P215" s="17" t="n"/>
     </row>
-    <row r="216" ht="30" customHeight="1" s="20">
+    <row r="216" ht="30" customHeight="1" s="19">
       <c r="A216" s="17" t="n"/>
       <c r="B216" s="17" t="inlineStr">
         <is>
@@ -9408,7 +9409,7 @@
       <c r="O216" s="17" t="n"/>
       <c r="P216" s="17" t="n"/>
     </row>
-    <row r="217" ht="30" customHeight="1" s="20">
+    <row r="217" ht="30" customHeight="1" s="19">
       <c r="A217" s="17" t="n"/>
       <c r="B217" s="17" t="inlineStr">
         <is>
@@ -9444,7 +9445,7 @@
       <c r="O217" s="17" t="n"/>
       <c r="P217" s="17" t="n"/>
     </row>
-    <row r="218" ht="30" customHeight="1" s="20">
+    <row r="218" ht="30" customHeight="1" s="19">
       <c r="A218" s="17" t="n"/>
       <c r="B218" s="17" t="inlineStr">
         <is>
@@ -9480,7 +9481,7 @@
       <c r="O218" s="17" t="n"/>
       <c r="P218" s="17" t="n"/>
     </row>
-    <row r="219" ht="30" customHeight="1" s="20">
+    <row r="219" ht="30" customHeight="1" s="19">
       <c r="A219" s="17" t="n"/>
       <c r="B219" s="17" t="inlineStr">
         <is>
@@ -9516,7 +9517,7 @@
       <c r="O219" s="17" t="n"/>
       <c r="P219" s="17" t="n"/>
     </row>
-    <row r="220" ht="30" customHeight="1" s="20">
+    <row r="220" ht="30" customHeight="1" s="19">
       <c r="A220" s="17" t="n"/>
       <c r="B220" s="17" t="inlineStr">
         <is>
@@ -9552,7 +9553,7 @@
       <c r="O220" s="17" t="n"/>
       <c r="P220" s="17" t="n"/>
     </row>
-    <row r="221" ht="30" customHeight="1" s="20">
+    <row r="221" ht="30" customHeight="1" s="19">
       <c r="A221" s="17" t="n"/>
       <c r="B221" s="1" t="inlineStr">
         <is>
@@ -9586,7 +9587,7 @@
       <c r="O221" s="17" t="n"/>
       <c r="P221" s="17" t="n"/>
     </row>
-    <row r="222" ht="30" customHeight="1" s="20">
+    <row r="222" ht="30" customHeight="1" s="19">
       <c r="A222" s="17" t="n"/>
       <c r="B222" s="17" t="inlineStr">
         <is>
@@ -9622,7 +9623,7 @@
       <c r="O222" s="17" t="n"/>
       <c r="P222" s="17" t="n"/>
     </row>
-    <row r="223" ht="30" customHeight="1" s="20">
+    <row r="223" ht="30" customHeight="1" s="19">
       <c r="A223" s="17" t="n"/>
       <c r="B223" s="17" t="inlineStr">
         <is>
@@ -9658,7 +9659,7 @@
       <c r="O223" s="17" t="n"/>
       <c r="P223" s="17" t="n"/>
     </row>
-    <row r="224" ht="30" customHeight="1" s="20">
+    <row r="224" ht="30" customHeight="1" s="19">
       <c r="A224" s="17" t="n"/>
       <c r="B224" s="17" t="inlineStr">
         <is>
@@ -9694,7 +9695,7 @@
       <c r="O224" s="17" t="n"/>
       <c r="P224" s="17" t="n"/>
     </row>
-    <row r="225" ht="30" customHeight="1" s="20">
+    <row r="225" ht="30" customHeight="1" s="19">
       <c r="A225" s="17" t="n"/>
       <c r="B225" s="17" t="inlineStr">
         <is>
@@ -9730,7 +9731,7 @@
       <c r="O225" s="17" t="n"/>
       <c r="P225" s="17" t="n"/>
     </row>
-    <row r="226" ht="30" customHeight="1" s="20">
+    <row r="226" ht="30" customHeight="1" s="19">
       <c r="A226" s="17" t="n"/>
       <c r="B226" s="17" t="inlineStr">
         <is>
@@ -9766,7 +9767,7 @@
       <c r="O226" s="17" t="n"/>
       <c r="P226" s="17" t="n"/>
     </row>
-    <row r="227" ht="30" customHeight="1" s="20">
+    <row r="227" ht="30" customHeight="1" s="19">
       <c r="A227" s="17" t="n"/>
       <c r="B227" s="17" t="inlineStr">
         <is>
@@ -9802,7 +9803,7 @@
       <c r="O227" s="17" t="n"/>
       <c r="P227" s="17" t="n"/>
     </row>
-    <row r="228" ht="30" customHeight="1" s="20">
+    <row r="228" ht="30" customHeight="1" s="19">
       <c r="B228" s="17" t="inlineStr">
         <is>
           <t>Сыворотки лицо</t>
@@ -9837,777 +9838,6 @@
       <c r="O228" s="17" t="n"/>
       <c r="P228" s="17" t="n"/>
     </row>
-    <row r="229"/>
-    <row r="230"/>
-    <row r="231"/>
-    <row r="232"/>
-    <row r="233"/>
-    <row r="234"/>
-    <row r="235"/>
-    <row r="236"/>
-    <row r="237"/>
-    <row r="238"/>
-    <row r="239"/>
-    <row r="240"/>
-    <row r="241"/>
-    <row r="242"/>
-    <row r="243"/>
-    <row r="244"/>
-    <row r="245"/>
-    <row r="246"/>
-    <row r="247"/>
-    <row r="248"/>
-    <row r="249"/>
-    <row r="250"/>
-    <row r="251"/>
-    <row r="252"/>
-    <row r="253"/>
-    <row r="254"/>
-    <row r="255"/>
-    <row r="256"/>
-    <row r="257"/>
-    <row r="258"/>
-    <row r="259"/>
-    <row r="260"/>
-    <row r="261"/>
-    <row r="262"/>
-    <row r="263"/>
-    <row r="264"/>
-    <row r="265"/>
-    <row r="266"/>
-    <row r="267"/>
-    <row r="268"/>
-    <row r="269"/>
-    <row r="270"/>
-    <row r="271"/>
-    <row r="272"/>
-    <row r="273"/>
-    <row r="274"/>
-    <row r="275"/>
-    <row r="276"/>
-    <row r="277"/>
-    <row r="278"/>
-    <row r="279"/>
-    <row r="280"/>
-    <row r="281"/>
-    <row r="282"/>
-    <row r="283"/>
-    <row r="284"/>
-    <row r="285"/>
-    <row r="286"/>
-    <row r="287"/>
-    <row r="288"/>
-    <row r="289"/>
-    <row r="290"/>
-    <row r="291"/>
-    <row r="292"/>
-    <row r="293"/>
-    <row r="294"/>
-    <row r="295"/>
-    <row r="296"/>
-    <row r="297"/>
-    <row r="298"/>
-    <row r="299"/>
-    <row r="300"/>
-    <row r="301"/>
-    <row r="302"/>
-    <row r="303"/>
-    <row r="304"/>
-    <row r="305"/>
-    <row r="306"/>
-    <row r="307"/>
-    <row r="308"/>
-    <row r="309"/>
-    <row r="310"/>
-    <row r="311"/>
-    <row r="312"/>
-    <row r="313"/>
-    <row r="314"/>
-    <row r="315"/>
-    <row r="316"/>
-    <row r="317"/>
-    <row r="318"/>
-    <row r="319"/>
-    <row r="320"/>
-    <row r="321"/>
-    <row r="322"/>
-    <row r="323"/>
-    <row r="324"/>
-    <row r="325"/>
-    <row r="326"/>
-    <row r="327"/>
-    <row r="328"/>
-    <row r="329"/>
-    <row r="330"/>
-    <row r="331"/>
-    <row r="332"/>
-    <row r="333"/>
-    <row r="334"/>
-    <row r="335"/>
-    <row r="336"/>
-    <row r="337"/>
-    <row r="338"/>
-    <row r="339"/>
-    <row r="340"/>
-    <row r="341"/>
-    <row r="342"/>
-    <row r="343"/>
-    <row r="344"/>
-    <row r="345"/>
-    <row r="346"/>
-    <row r="347"/>
-    <row r="348"/>
-    <row r="349"/>
-    <row r="350"/>
-    <row r="351"/>
-    <row r="352"/>
-    <row r="353"/>
-    <row r="354"/>
-    <row r="355"/>
-    <row r="356"/>
-    <row r="357"/>
-    <row r="358"/>
-    <row r="359"/>
-    <row r="360"/>
-    <row r="361"/>
-    <row r="362"/>
-    <row r="363"/>
-    <row r="364"/>
-    <row r="365"/>
-    <row r="366"/>
-    <row r="367"/>
-    <row r="368"/>
-    <row r="369"/>
-    <row r="370"/>
-    <row r="371"/>
-    <row r="372"/>
-    <row r="373"/>
-    <row r="374"/>
-    <row r="375"/>
-    <row r="376"/>
-    <row r="377"/>
-    <row r="378"/>
-    <row r="379"/>
-    <row r="380"/>
-    <row r="381"/>
-    <row r="382"/>
-    <row r="383"/>
-    <row r="384"/>
-    <row r="385"/>
-    <row r="386"/>
-    <row r="387"/>
-    <row r="388"/>
-    <row r="389"/>
-    <row r="390"/>
-    <row r="391"/>
-    <row r="392"/>
-    <row r="393"/>
-    <row r="394"/>
-    <row r="395"/>
-    <row r="396"/>
-    <row r="397"/>
-    <row r="398"/>
-    <row r="399"/>
-    <row r="400"/>
-    <row r="401"/>
-    <row r="402"/>
-    <row r="403"/>
-    <row r="404"/>
-    <row r="405"/>
-    <row r="406"/>
-    <row r="407"/>
-    <row r="408"/>
-    <row r="409"/>
-    <row r="410"/>
-    <row r="411"/>
-    <row r="412"/>
-    <row r="413"/>
-    <row r="414"/>
-    <row r="415"/>
-    <row r="416"/>
-    <row r="417"/>
-    <row r="418"/>
-    <row r="419"/>
-    <row r="420"/>
-    <row r="421"/>
-    <row r="422"/>
-    <row r="423"/>
-    <row r="424"/>
-    <row r="425"/>
-    <row r="426"/>
-    <row r="427"/>
-    <row r="428"/>
-    <row r="429"/>
-    <row r="430"/>
-    <row r="431"/>
-    <row r="432"/>
-    <row r="433"/>
-    <row r="434"/>
-    <row r="435"/>
-    <row r="436"/>
-    <row r="437"/>
-    <row r="438"/>
-    <row r="439"/>
-    <row r="440"/>
-    <row r="441"/>
-    <row r="442"/>
-    <row r="443"/>
-    <row r="444"/>
-    <row r="445"/>
-    <row r="446"/>
-    <row r="447"/>
-    <row r="448"/>
-    <row r="449"/>
-    <row r="450"/>
-    <row r="451"/>
-    <row r="452"/>
-    <row r="453"/>
-    <row r="454"/>
-    <row r="455"/>
-    <row r="456"/>
-    <row r="457"/>
-    <row r="458"/>
-    <row r="459"/>
-    <row r="460"/>
-    <row r="461"/>
-    <row r="462"/>
-    <row r="463"/>
-    <row r="464"/>
-    <row r="465"/>
-    <row r="466"/>
-    <row r="467"/>
-    <row r="468"/>
-    <row r="469"/>
-    <row r="470"/>
-    <row r="471"/>
-    <row r="472"/>
-    <row r="473"/>
-    <row r="474"/>
-    <row r="475"/>
-    <row r="476"/>
-    <row r="477"/>
-    <row r="478"/>
-    <row r="479"/>
-    <row r="480"/>
-    <row r="481"/>
-    <row r="482"/>
-    <row r="483"/>
-    <row r="484"/>
-    <row r="485"/>
-    <row r="486"/>
-    <row r="487"/>
-    <row r="488"/>
-    <row r="489"/>
-    <row r="490"/>
-    <row r="491"/>
-    <row r="492"/>
-    <row r="493"/>
-    <row r="494"/>
-    <row r="495"/>
-    <row r="496"/>
-    <row r="497"/>
-    <row r="498"/>
-    <row r="499"/>
-    <row r="500"/>
-    <row r="501"/>
-    <row r="502"/>
-    <row r="503"/>
-    <row r="504"/>
-    <row r="505"/>
-    <row r="506"/>
-    <row r="507"/>
-    <row r="508"/>
-    <row r="509"/>
-    <row r="510"/>
-    <row r="511"/>
-    <row r="512"/>
-    <row r="513"/>
-    <row r="514"/>
-    <row r="515"/>
-    <row r="516"/>
-    <row r="517"/>
-    <row r="518"/>
-    <row r="519"/>
-    <row r="520"/>
-    <row r="521"/>
-    <row r="522"/>
-    <row r="523"/>
-    <row r="524"/>
-    <row r="525"/>
-    <row r="526"/>
-    <row r="527"/>
-    <row r="528"/>
-    <row r="529"/>
-    <row r="530"/>
-    <row r="531"/>
-    <row r="532"/>
-    <row r="533"/>
-    <row r="534"/>
-    <row r="535"/>
-    <row r="536"/>
-    <row r="537"/>
-    <row r="538"/>
-    <row r="539"/>
-    <row r="540"/>
-    <row r="541"/>
-    <row r="542"/>
-    <row r="543"/>
-    <row r="544"/>
-    <row r="545"/>
-    <row r="546"/>
-    <row r="547"/>
-    <row r="548"/>
-    <row r="549"/>
-    <row r="550"/>
-    <row r="551"/>
-    <row r="552"/>
-    <row r="553"/>
-    <row r="554"/>
-    <row r="555"/>
-    <row r="556"/>
-    <row r="557"/>
-    <row r="558"/>
-    <row r="559"/>
-    <row r="560"/>
-    <row r="561"/>
-    <row r="562"/>
-    <row r="563"/>
-    <row r="564"/>
-    <row r="565"/>
-    <row r="566"/>
-    <row r="567"/>
-    <row r="568"/>
-    <row r="569"/>
-    <row r="570"/>
-    <row r="571"/>
-    <row r="572"/>
-    <row r="573"/>
-    <row r="574"/>
-    <row r="575"/>
-    <row r="576"/>
-    <row r="577"/>
-    <row r="578"/>
-    <row r="579"/>
-    <row r="580"/>
-    <row r="581"/>
-    <row r="582"/>
-    <row r="583"/>
-    <row r="584"/>
-    <row r="585"/>
-    <row r="586"/>
-    <row r="587"/>
-    <row r="588"/>
-    <row r="589"/>
-    <row r="590"/>
-    <row r="591"/>
-    <row r="592"/>
-    <row r="593"/>
-    <row r="594"/>
-    <row r="595"/>
-    <row r="596"/>
-    <row r="597"/>
-    <row r="598"/>
-    <row r="599"/>
-    <row r="600"/>
-    <row r="601"/>
-    <row r="602"/>
-    <row r="603"/>
-    <row r="604"/>
-    <row r="605"/>
-    <row r="606"/>
-    <row r="607"/>
-    <row r="608"/>
-    <row r="609"/>
-    <row r="610"/>
-    <row r="611"/>
-    <row r="612"/>
-    <row r="613"/>
-    <row r="614"/>
-    <row r="615"/>
-    <row r="616"/>
-    <row r="617"/>
-    <row r="618"/>
-    <row r="619"/>
-    <row r="620"/>
-    <row r="621"/>
-    <row r="622"/>
-    <row r="623"/>
-    <row r="624"/>
-    <row r="625"/>
-    <row r="626"/>
-    <row r="627"/>
-    <row r="628"/>
-    <row r="629"/>
-    <row r="630"/>
-    <row r="631"/>
-    <row r="632"/>
-    <row r="633"/>
-    <row r="634"/>
-    <row r="635"/>
-    <row r="636"/>
-    <row r="637"/>
-    <row r="638"/>
-    <row r="639"/>
-    <row r="640"/>
-    <row r="641"/>
-    <row r="642"/>
-    <row r="643"/>
-    <row r="644"/>
-    <row r="645"/>
-    <row r="646"/>
-    <row r="647"/>
-    <row r="648"/>
-    <row r="649"/>
-    <row r="650"/>
-    <row r="651"/>
-    <row r="652"/>
-    <row r="653"/>
-    <row r="654"/>
-    <row r="655"/>
-    <row r="656"/>
-    <row r="657"/>
-    <row r="658"/>
-    <row r="659"/>
-    <row r="660"/>
-    <row r="661"/>
-    <row r="662"/>
-    <row r="663"/>
-    <row r="664"/>
-    <row r="665"/>
-    <row r="666"/>
-    <row r="667"/>
-    <row r="668"/>
-    <row r="669"/>
-    <row r="670"/>
-    <row r="671"/>
-    <row r="672"/>
-    <row r="673"/>
-    <row r="674"/>
-    <row r="675"/>
-    <row r="676"/>
-    <row r="677"/>
-    <row r="678"/>
-    <row r="679"/>
-    <row r="680"/>
-    <row r="681"/>
-    <row r="682"/>
-    <row r="683"/>
-    <row r="684"/>
-    <row r="685"/>
-    <row r="686"/>
-    <row r="687"/>
-    <row r="688"/>
-    <row r="689"/>
-    <row r="690"/>
-    <row r="691"/>
-    <row r="692"/>
-    <row r="693"/>
-    <row r="694"/>
-    <row r="695"/>
-    <row r="696"/>
-    <row r="697"/>
-    <row r="698"/>
-    <row r="699"/>
-    <row r="700"/>
-    <row r="701"/>
-    <row r="702"/>
-    <row r="703"/>
-    <row r="704"/>
-    <row r="705"/>
-    <row r="706"/>
-    <row r="707"/>
-    <row r="708"/>
-    <row r="709"/>
-    <row r="710"/>
-    <row r="711"/>
-    <row r="712"/>
-    <row r="713"/>
-    <row r="714"/>
-    <row r="715"/>
-    <row r="716"/>
-    <row r="717"/>
-    <row r="718"/>
-    <row r="719"/>
-    <row r="720"/>
-    <row r="721"/>
-    <row r="722"/>
-    <row r="723"/>
-    <row r="724"/>
-    <row r="725"/>
-    <row r="726"/>
-    <row r="727"/>
-    <row r="728"/>
-    <row r="729"/>
-    <row r="730"/>
-    <row r="731"/>
-    <row r="732"/>
-    <row r="733"/>
-    <row r="734"/>
-    <row r="735"/>
-    <row r="736"/>
-    <row r="737"/>
-    <row r="738"/>
-    <row r="739"/>
-    <row r="740"/>
-    <row r="741"/>
-    <row r="742"/>
-    <row r="743"/>
-    <row r="744"/>
-    <row r="745"/>
-    <row r="746"/>
-    <row r="747"/>
-    <row r="748"/>
-    <row r="749"/>
-    <row r="750"/>
-    <row r="751"/>
-    <row r="752"/>
-    <row r="753"/>
-    <row r="754"/>
-    <row r="755"/>
-    <row r="756"/>
-    <row r="757"/>
-    <row r="758"/>
-    <row r="759"/>
-    <row r="760"/>
-    <row r="761"/>
-    <row r="762"/>
-    <row r="763"/>
-    <row r="764"/>
-    <row r="765"/>
-    <row r="766"/>
-    <row r="767"/>
-    <row r="768"/>
-    <row r="769"/>
-    <row r="770"/>
-    <row r="771"/>
-    <row r="772"/>
-    <row r="773"/>
-    <row r="774"/>
-    <row r="775"/>
-    <row r="776"/>
-    <row r="777"/>
-    <row r="778"/>
-    <row r="779"/>
-    <row r="780"/>
-    <row r="781"/>
-    <row r="782"/>
-    <row r="783"/>
-    <row r="784"/>
-    <row r="785"/>
-    <row r="786"/>
-    <row r="787"/>
-    <row r="788"/>
-    <row r="789"/>
-    <row r="790"/>
-    <row r="791"/>
-    <row r="792"/>
-    <row r="793"/>
-    <row r="794"/>
-    <row r="795"/>
-    <row r="796"/>
-    <row r="797"/>
-    <row r="798"/>
-    <row r="799"/>
-    <row r="800"/>
-    <row r="801"/>
-    <row r="802"/>
-    <row r="803"/>
-    <row r="804"/>
-    <row r="805"/>
-    <row r="806"/>
-    <row r="807"/>
-    <row r="808"/>
-    <row r="809"/>
-    <row r="810"/>
-    <row r="811"/>
-    <row r="812"/>
-    <row r="813"/>
-    <row r="814"/>
-    <row r="815"/>
-    <row r="816"/>
-    <row r="817"/>
-    <row r="818"/>
-    <row r="819"/>
-    <row r="820"/>
-    <row r="821"/>
-    <row r="822"/>
-    <row r="823"/>
-    <row r="824"/>
-    <row r="825"/>
-    <row r="826"/>
-    <row r="827"/>
-    <row r="828"/>
-    <row r="829"/>
-    <row r="830"/>
-    <row r="831"/>
-    <row r="832"/>
-    <row r="833"/>
-    <row r="834"/>
-    <row r="835"/>
-    <row r="836"/>
-    <row r="837"/>
-    <row r="838"/>
-    <row r="839"/>
-    <row r="840"/>
-    <row r="841"/>
-    <row r="842"/>
-    <row r="843"/>
-    <row r="844"/>
-    <row r="845"/>
-    <row r="846"/>
-    <row r="847"/>
-    <row r="848"/>
-    <row r="849"/>
-    <row r="850"/>
-    <row r="851"/>
-    <row r="852"/>
-    <row r="853"/>
-    <row r="854"/>
-    <row r="855"/>
-    <row r="856"/>
-    <row r="857"/>
-    <row r="858"/>
-    <row r="859"/>
-    <row r="860"/>
-    <row r="861"/>
-    <row r="862"/>
-    <row r="863"/>
-    <row r="864"/>
-    <row r="865"/>
-    <row r="866"/>
-    <row r="867"/>
-    <row r="868"/>
-    <row r="869"/>
-    <row r="870"/>
-    <row r="871"/>
-    <row r="872"/>
-    <row r="873"/>
-    <row r="874"/>
-    <row r="875"/>
-    <row r="876"/>
-    <row r="877"/>
-    <row r="878"/>
-    <row r="879"/>
-    <row r="880"/>
-    <row r="881"/>
-    <row r="882"/>
-    <row r="883"/>
-    <row r="884"/>
-    <row r="885"/>
-    <row r="886"/>
-    <row r="887"/>
-    <row r="888"/>
-    <row r="889"/>
-    <row r="890"/>
-    <row r="891"/>
-    <row r="892"/>
-    <row r="893"/>
-    <row r="894"/>
-    <row r="895"/>
-    <row r="896"/>
-    <row r="897"/>
-    <row r="898"/>
-    <row r="899"/>
-    <row r="900"/>
-    <row r="901"/>
-    <row r="902"/>
-    <row r="903"/>
-    <row r="904"/>
-    <row r="905"/>
-    <row r="906"/>
-    <row r="907"/>
-    <row r="908"/>
-    <row r="909"/>
-    <row r="910"/>
-    <row r="911"/>
-    <row r="912"/>
-    <row r="913"/>
-    <row r="914"/>
-    <row r="915"/>
-    <row r="916"/>
-    <row r="917"/>
-    <row r="918"/>
-    <row r="919"/>
-    <row r="920"/>
-    <row r="921"/>
-    <row r="922"/>
-    <row r="923"/>
-    <row r="924"/>
-    <row r="925"/>
-    <row r="926"/>
-    <row r="927"/>
-    <row r="928"/>
-    <row r="929"/>
-    <row r="930"/>
-    <row r="931"/>
-    <row r="932"/>
-    <row r="933"/>
-    <row r="934"/>
-    <row r="935"/>
-    <row r="936"/>
-    <row r="937"/>
-    <row r="938"/>
-    <row r="939"/>
-    <row r="940"/>
-    <row r="941"/>
-    <row r="942"/>
-    <row r="943"/>
-    <row r="944"/>
-    <row r="945"/>
-    <row r="946"/>
-    <row r="947"/>
-    <row r="948"/>
-    <row r="949"/>
-    <row r="950"/>
-    <row r="951"/>
-    <row r="952"/>
-    <row r="953"/>
-    <row r="954"/>
-    <row r="955"/>
-    <row r="956"/>
-    <row r="957"/>
-    <row r="958"/>
-    <row r="959"/>
-    <row r="960"/>
-    <row r="961"/>
-    <row r="962"/>
-    <row r="963"/>
-    <row r="964"/>
-    <row r="965"/>
-    <row r="966"/>
-    <row r="967"/>
-    <row r="968"/>
-    <row r="969"/>
-    <row r="970"/>
-    <row r="971"/>
-    <row r="972"/>
-    <row r="973"/>
-    <row r="974"/>
-    <row r="975"/>
-    <row r="976"/>
-    <row r="977"/>
-    <row r="978"/>
-    <row r="979"/>
-    <row r="980"/>
-    <row r="981"/>
-    <row r="982"/>
-    <row r="983"/>
-    <row r="984"/>
-    <row r="985"/>
-    <row r="986"/>
-    <row r="987"/>
-    <row r="988"/>
-    <row r="989"/>
-    <row r="990"/>
-    <row r="991"/>
-    <row r="992"/>
-    <row r="993"/>
-    <row r="994"/>
-    <row r="995"/>
-    <row r="996"/>
-    <row r="997"/>
-    <row r="998"/>
-    <row r="999"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" verticalDpi="0"/>

--- a/etual.xlsx
+++ b/etual.xlsx
@@ -1447,7 +1447,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P999"/>
+  <dimension ref="A1:P228"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
@@ -1584,7 +1584,9 @@
         <v>200</v>
       </c>
       <c r="K2" s="12" t="n"/>
-      <c r="L2" s="15" t="n"/>
+      <c r="L2" s="15" t="n">
+        <v>70000</v>
+      </c>
       <c r="M2" s="17" t="n"/>
       <c r="N2" s="17" t="n"/>
       <c r="O2" s="17" t="n"/>
@@ -9851,777 +9853,6 @@
       <c r="O228" s="17" t="n"/>
       <c r="P228" s="17" t="n"/>
     </row>
-    <row r="229"/>
-    <row r="230"/>
-    <row r="231"/>
-    <row r="232"/>
-    <row r="233"/>
-    <row r="234"/>
-    <row r="235"/>
-    <row r="236"/>
-    <row r="237"/>
-    <row r="238"/>
-    <row r="239"/>
-    <row r="240"/>
-    <row r="241"/>
-    <row r="242"/>
-    <row r="243"/>
-    <row r="244"/>
-    <row r="245"/>
-    <row r="246"/>
-    <row r="247"/>
-    <row r="248"/>
-    <row r="249"/>
-    <row r="250"/>
-    <row r="251"/>
-    <row r="252"/>
-    <row r="253"/>
-    <row r="254"/>
-    <row r="255"/>
-    <row r="256"/>
-    <row r="257"/>
-    <row r="258"/>
-    <row r="259"/>
-    <row r="260"/>
-    <row r="261"/>
-    <row r="262"/>
-    <row r="263"/>
-    <row r="264"/>
-    <row r="265"/>
-    <row r="266"/>
-    <row r="267"/>
-    <row r="268"/>
-    <row r="269"/>
-    <row r="270"/>
-    <row r="271"/>
-    <row r="272"/>
-    <row r="273"/>
-    <row r="274"/>
-    <row r="275"/>
-    <row r="276"/>
-    <row r="277"/>
-    <row r="278"/>
-    <row r="279"/>
-    <row r="280"/>
-    <row r="281"/>
-    <row r="282"/>
-    <row r="283"/>
-    <row r="284"/>
-    <row r="285"/>
-    <row r="286"/>
-    <row r="287"/>
-    <row r="288"/>
-    <row r="289"/>
-    <row r="290"/>
-    <row r="291"/>
-    <row r="292"/>
-    <row r="293"/>
-    <row r="294"/>
-    <row r="295"/>
-    <row r="296"/>
-    <row r="297"/>
-    <row r="298"/>
-    <row r="299"/>
-    <row r="300"/>
-    <row r="301"/>
-    <row r="302"/>
-    <row r="303"/>
-    <row r="304"/>
-    <row r="305"/>
-    <row r="306"/>
-    <row r="307"/>
-    <row r="308"/>
-    <row r="309"/>
-    <row r="310"/>
-    <row r="311"/>
-    <row r="312"/>
-    <row r="313"/>
-    <row r="314"/>
-    <row r="315"/>
-    <row r="316"/>
-    <row r="317"/>
-    <row r="318"/>
-    <row r="319"/>
-    <row r="320"/>
-    <row r="321"/>
-    <row r="322"/>
-    <row r="323"/>
-    <row r="324"/>
-    <row r="325"/>
-    <row r="326"/>
-    <row r="327"/>
-    <row r="328"/>
-    <row r="329"/>
-    <row r="330"/>
-    <row r="331"/>
-    <row r="332"/>
-    <row r="333"/>
-    <row r="334"/>
-    <row r="335"/>
-    <row r="336"/>
-    <row r="337"/>
-    <row r="338"/>
-    <row r="339"/>
-    <row r="340"/>
-    <row r="341"/>
-    <row r="342"/>
-    <row r="343"/>
-    <row r="344"/>
-    <row r="345"/>
-    <row r="346"/>
-    <row r="347"/>
-    <row r="348"/>
-    <row r="349"/>
-    <row r="350"/>
-    <row r="351"/>
-    <row r="352"/>
-    <row r="353"/>
-    <row r="354"/>
-    <row r="355"/>
-    <row r="356"/>
-    <row r="357"/>
-    <row r="358"/>
-    <row r="359"/>
-    <row r="360"/>
-    <row r="361"/>
-    <row r="362"/>
-    <row r="363"/>
-    <row r="364"/>
-    <row r="365"/>
-    <row r="366"/>
-    <row r="367"/>
-    <row r="368"/>
-    <row r="369"/>
-    <row r="370"/>
-    <row r="371"/>
-    <row r="372"/>
-    <row r="373"/>
-    <row r="374"/>
-    <row r="375"/>
-    <row r="376"/>
-    <row r="377"/>
-    <row r="378"/>
-    <row r="379"/>
-    <row r="380"/>
-    <row r="381"/>
-    <row r="382"/>
-    <row r="383"/>
-    <row r="384"/>
-    <row r="385"/>
-    <row r="386"/>
-    <row r="387"/>
-    <row r="388"/>
-    <row r="389"/>
-    <row r="390"/>
-    <row r="391"/>
-    <row r="392"/>
-    <row r="393"/>
-    <row r="394"/>
-    <row r="395"/>
-    <row r="396"/>
-    <row r="397"/>
-    <row r="398"/>
-    <row r="399"/>
-    <row r="400"/>
-    <row r="401"/>
-    <row r="402"/>
-    <row r="403"/>
-    <row r="404"/>
-    <row r="405"/>
-    <row r="406"/>
-    <row r="407"/>
-    <row r="408"/>
-    <row r="409"/>
-    <row r="410"/>
-    <row r="411"/>
-    <row r="412"/>
-    <row r="413"/>
-    <row r="414"/>
-    <row r="415"/>
-    <row r="416"/>
-    <row r="417"/>
-    <row r="418"/>
-    <row r="419"/>
-    <row r="420"/>
-    <row r="421"/>
-    <row r="422"/>
-    <row r="423"/>
-    <row r="424"/>
-    <row r="425"/>
-    <row r="426"/>
-    <row r="427"/>
-    <row r="428"/>
-    <row r="429"/>
-    <row r="430"/>
-    <row r="431"/>
-    <row r="432"/>
-    <row r="433"/>
-    <row r="434"/>
-    <row r="435"/>
-    <row r="436"/>
-    <row r="437"/>
-    <row r="438"/>
-    <row r="439"/>
-    <row r="440"/>
-    <row r="441"/>
-    <row r="442"/>
-    <row r="443"/>
-    <row r="444"/>
-    <row r="445"/>
-    <row r="446"/>
-    <row r="447"/>
-    <row r="448"/>
-    <row r="449"/>
-    <row r="450"/>
-    <row r="451"/>
-    <row r="452"/>
-    <row r="453"/>
-    <row r="454"/>
-    <row r="455"/>
-    <row r="456"/>
-    <row r="457"/>
-    <row r="458"/>
-    <row r="459"/>
-    <row r="460"/>
-    <row r="461"/>
-    <row r="462"/>
-    <row r="463"/>
-    <row r="464"/>
-    <row r="465"/>
-    <row r="466"/>
-    <row r="467"/>
-    <row r="468"/>
-    <row r="469"/>
-    <row r="470"/>
-    <row r="471"/>
-    <row r="472"/>
-    <row r="473"/>
-    <row r="474"/>
-    <row r="475"/>
-    <row r="476"/>
-    <row r="477"/>
-    <row r="478"/>
-    <row r="479"/>
-    <row r="480"/>
-    <row r="481"/>
-    <row r="482"/>
-    <row r="483"/>
-    <row r="484"/>
-    <row r="485"/>
-    <row r="486"/>
-    <row r="487"/>
-    <row r="488"/>
-    <row r="489"/>
-    <row r="490"/>
-    <row r="491"/>
-    <row r="492"/>
-    <row r="493"/>
-    <row r="494"/>
-    <row r="495"/>
-    <row r="496"/>
-    <row r="497"/>
-    <row r="498"/>
-    <row r="499"/>
-    <row r="500"/>
-    <row r="501"/>
-    <row r="502"/>
-    <row r="503"/>
-    <row r="504"/>
-    <row r="505"/>
-    <row r="506"/>
-    <row r="507"/>
-    <row r="508"/>
-    <row r="509"/>
-    <row r="510"/>
-    <row r="511"/>
-    <row r="512"/>
-    <row r="513"/>
-    <row r="514"/>
-    <row r="515"/>
-    <row r="516"/>
-    <row r="517"/>
-    <row r="518"/>
-    <row r="519"/>
-    <row r="520"/>
-    <row r="521"/>
-    <row r="522"/>
-    <row r="523"/>
-    <row r="524"/>
-    <row r="525"/>
-    <row r="526"/>
-    <row r="527"/>
-    <row r="528"/>
-    <row r="529"/>
-    <row r="530"/>
-    <row r="531"/>
-    <row r="532"/>
-    <row r="533"/>
-    <row r="534"/>
-    <row r="535"/>
-    <row r="536"/>
-    <row r="537"/>
-    <row r="538"/>
-    <row r="539"/>
-    <row r="540"/>
-    <row r="541"/>
-    <row r="542"/>
-    <row r="543"/>
-    <row r="544"/>
-    <row r="545"/>
-    <row r="546"/>
-    <row r="547"/>
-    <row r="548"/>
-    <row r="549"/>
-    <row r="550"/>
-    <row r="551"/>
-    <row r="552"/>
-    <row r="553"/>
-    <row r="554"/>
-    <row r="555"/>
-    <row r="556"/>
-    <row r="557"/>
-    <row r="558"/>
-    <row r="559"/>
-    <row r="560"/>
-    <row r="561"/>
-    <row r="562"/>
-    <row r="563"/>
-    <row r="564"/>
-    <row r="565"/>
-    <row r="566"/>
-    <row r="567"/>
-    <row r="568"/>
-    <row r="569"/>
-    <row r="570"/>
-    <row r="571"/>
-    <row r="572"/>
-    <row r="573"/>
-    <row r="574"/>
-    <row r="575"/>
-    <row r="576"/>
-    <row r="577"/>
-    <row r="578"/>
-    <row r="579"/>
-    <row r="580"/>
-    <row r="581"/>
-    <row r="582"/>
-    <row r="583"/>
-    <row r="584"/>
-    <row r="585"/>
-    <row r="586"/>
-    <row r="587"/>
-    <row r="588"/>
-    <row r="589"/>
-    <row r="590"/>
-    <row r="591"/>
-    <row r="592"/>
-    <row r="593"/>
-    <row r="594"/>
-    <row r="595"/>
-    <row r="596"/>
-    <row r="597"/>
-    <row r="598"/>
-    <row r="599"/>
-    <row r="600"/>
-    <row r="601"/>
-    <row r="602"/>
-    <row r="603"/>
-    <row r="604"/>
-    <row r="605"/>
-    <row r="606"/>
-    <row r="607"/>
-    <row r="608"/>
-    <row r="609"/>
-    <row r="610"/>
-    <row r="611"/>
-    <row r="612"/>
-    <row r="613"/>
-    <row r="614"/>
-    <row r="615"/>
-    <row r="616"/>
-    <row r="617"/>
-    <row r="618"/>
-    <row r="619"/>
-    <row r="620"/>
-    <row r="621"/>
-    <row r="622"/>
-    <row r="623"/>
-    <row r="624"/>
-    <row r="625"/>
-    <row r="626"/>
-    <row r="627"/>
-    <row r="628"/>
-    <row r="629"/>
-    <row r="630"/>
-    <row r="631"/>
-    <row r="632"/>
-    <row r="633"/>
-    <row r="634"/>
-    <row r="635"/>
-    <row r="636"/>
-    <row r="637"/>
-    <row r="638"/>
-    <row r="639"/>
-    <row r="640"/>
-    <row r="641"/>
-    <row r="642"/>
-    <row r="643"/>
-    <row r="644"/>
-    <row r="645"/>
-    <row r="646"/>
-    <row r="647"/>
-    <row r="648"/>
-    <row r="649"/>
-    <row r="650"/>
-    <row r="651"/>
-    <row r="652"/>
-    <row r="653"/>
-    <row r="654"/>
-    <row r="655"/>
-    <row r="656"/>
-    <row r="657"/>
-    <row r="658"/>
-    <row r="659"/>
-    <row r="660"/>
-    <row r="661"/>
-    <row r="662"/>
-    <row r="663"/>
-    <row r="664"/>
-    <row r="665"/>
-    <row r="666"/>
-    <row r="667"/>
-    <row r="668"/>
-    <row r="669"/>
-    <row r="670"/>
-    <row r="671"/>
-    <row r="672"/>
-    <row r="673"/>
-    <row r="674"/>
-    <row r="675"/>
-    <row r="676"/>
-    <row r="677"/>
-    <row r="678"/>
-    <row r="679"/>
-    <row r="680"/>
-    <row r="681"/>
-    <row r="682"/>
-    <row r="683"/>
-    <row r="684"/>
-    <row r="685"/>
-    <row r="686"/>
-    <row r="687"/>
-    <row r="688"/>
-    <row r="689"/>
-    <row r="690"/>
-    <row r="691"/>
-    <row r="692"/>
-    <row r="693"/>
-    <row r="694"/>
-    <row r="695"/>
-    <row r="696"/>
-    <row r="697"/>
-    <row r="698"/>
-    <row r="699"/>
-    <row r="700"/>
-    <row r="701"/>
-    <row r="702"/>
-    <row r="703"/>
-    <row r="704"/>
-    <row r="705"/>
-    <row r="706"/>
-    <row r="707"/>
-    <row r="708"/>
-    <row r="709"/>
-    <row r="710"/>
-    <row r="711"/>
-    <row r="712"/>
-    <row r="713"/>
-    <row r="714"/>
-    <row r="715"/>
-    <row r="716"/>
-    <row r="717"/>
-    <row r="718"/>
-    <row r="719"/>
-    <row r="720"/>
-    <row r="721"/>
-    <row r="722"/>
-    <row r="723"/>
-    <row r="724"/>
-    <row r="725"/>
-    <row r="726"/>
-    <row r="727"/>
-    <row r="728"/>
-    <row r="729"/>
-    <row r="730"/>
-    <row r="731"/>
-    <row r="732"/>
-    <row r="733"/>
-    <row r="734"/>
-    <row r="735"/>
-    <row r="736"/>
-    <row r="737"/>
-    <row r="738"/>
-    <row r="739"/>
-    <row r="740"/>
-    <row r="741"/>
-    <row r="742"/>
-    <row r="743"/>
-    <row r="744"/>
-    <row r="745"/>
-    <row r="746"/>
-    <row r="747"/>
-    <row r="748"/>
-    <row r="749"/>
-    <row r="750"/>
-    <row r="751"/>
-    <row r="752"/>
-    <row r="753"/>
-    <row r="754"/>
-    <row r="755"/>
-    <row r="756"/>
-    <row r="757"/>
-    <row r="758"/>
-    <row r="759"/>
-    <row r="760"/>
-    <row r="761"/>
-    <row r="762"/>
-    <row r="763"/>
-    <row r="764"/>
-    <row r="765"/>
-    <row r="766"/>
-    <row r="767"/>
-    <row r="768"/>
-    <row r="769"/>
-    <row r="770"/>
-    <row r="771"/>
-    <row r="772"/>
-    <row r="773"/>
-    <row r="774"/>
-    <row r="775"/>
-    <row r="776"/>
-    <row r="777"/>
-    <row r="778"/>
-    <row r="779"/>
-    <row r="780"/>
-    <row r="781"/>
-    <row r="782"/>
-    <row r="783"/>
-    <row r="784"/>
-    <row r="785"/>
-    <row r="786"/>
-    <row r="787"/>
-    <row r="788"/>
-    <row r="789"/>
-    <row r="790"/>
-    <row r="791"/>
-    <row r="792"/>
-    <row r="793"/>
-    <row r="794"/>
-    <row r="795"/>
-    <row r="796"/>
-    <row r="797"/>
-    <row r="798"/>
-    <row r="799"/>
-    <row r="800"/>
-    <row r="801"/>
-    <row r="802"/>
-    <row r="803"/>
-    <row r="804"/>
-    <row r="805"/>
-    <row r="806"/>
-    <row r="807"/>
-    <row r="808"/>
-    <row r="809"/>
-    <row r="810"/>
-    <row r="811"/>
-    <row r="812"/>
-    <row r="813"/>
-    <row r="814"/>
-    <row r="815"/>
-    <row r="816"/>
-    <row r="817"/>
-    <row r="818"/>
-    <row r="819"/>
-    <row r="820"/>
-    <row r="821"/>
-    <row r="822"/>
-    <row r="823"/>
-    <row r="824"/>
-    <row r="825"/>
-    <row r="826"/>
-    <row r="827"/>
-    <row r="828"/>
-    <row r="829"/>
-    <row r="830"/>
-    <row r="831"/>
-    <row r="832"/>
-    <row r="833"/>
-    <row r="834"/>
-    <row r="835"/>
-    <row r="836"/>
-    <row r="837"/>
-    <row r="838"/>
-    <row r="839"/>
-    <row r="840"/>
-    <row r="841"/>
-    <row r="842"/>
-    <row r="843"/>
-    <row r="844"/>
-    <row r="845"/>
-    <row r="846"/>
-    <row r="847"/>
-    <row r="848"/>
-    <row r="849"/>
-    <row r="850"/>
-    <row r="851"/>
-    <row r="852"/>
-    <row r="853"/>
-    <row r="854"/>
-    <row r="855"/>
-    <row r="856"/>
-    <row r="857"/>
-    <row r="858"/>
-    <row r="859"/>
-    <row r="860"/>
-    <row r="861"/>
-    <row r="862"/>
-    <row r="863"/>
-    <row r="864"/>
-    <row r="865"/>
-    <row r="866"/>
-    <row r="867"/>
-    <row r="868"/>
-    <row r="869"/>
-    <row r="870"/>
-    <row r="871"/>
-    <row r="872"/>
-    <row r="873"/>
-    <row r="874"/>
-    <row r="875"/>
-    <row r="876"/>
-    <row r="877"/>
-    <row r="878"/>
-    <row r="879"/>
-    <row r="880"/>
-    <row r="881"/>
-    <row r="882"/>
-    <row r="883"/>
-    <row r="884"/>
-    <row r="885"/>
-    <row r="886"/>
-    <row r="887"/>
-    <row r="888"/>
-    <row r="889"/>
-    <row r="890"/>
-    <row r="891"/>
-    <row r="892"/>
-    <row r="893"/>
-    <row r="894"/>
-    <row r="895"/>
-    <row r="896"/>
-    <row r="897"/>
-    <row r="898"/>
-    <row r="899"/>
-    <row r="900"/>
-    <row r="901"/>
-    <row r="902"/>
-    <row r="903"/>
-    <row r="904"/>
-    <row r="905"/>
-    <row r="906"/>
-    <row r="907"/>
-    <row r="908"/>
-    <row r="909"/>
-    <row r="910"/>
-    <row r="911"/>
-    <row r="912"/>
-    <row r="913"/>
-    <row r="914"/>
-    <row r="915"/>
-    <row r="916"/>
-    <row r="917"/>
-    <row r="918"/>
-    <row r="919"/>
-    <row r="920"/>
-    <row r="921"/>
-    <row r="922"/>
-    <row r="923"/>
-    <row r="924"/>
-    <row r="925"/>
-    <row r="926"/>
-    <row r="927"/>
-    <row r="928"/>
-    <row r="929"/>
-    <row r="930"/>
-    <row r="931"/>
-    <row r="932"/>
-    <row r="933"/>
-    <row r="934"/>
-    <row r="935"/>
-    <row r="936"/>
-    <row r="937"/>
-    <row r="938"/>
-    <row r="939"/>
-    <row r="940"/>
-    <row r="941"/>
-    <row r="942"/>
-    <row r="943"/>
-    <row r="944"/>
-    <row r="945"/>
-    <row r="946"/>
-    <row r="947"/>
-    <row r="948"/>
-    <row r="949"/>
-    <row r="950"/>
-    <row r="951"/>
-    <row r="952"/>
-    <row r="953"/>
-    <row r="954"/>
-    <row r="955"/>
-    <row r="956"/>
-    <row r="957"/>
-    <row r="958"/>
-    <row r="959"/>
-    <row r="960"/>
-    <row r="961"/>
-    <row r="962"/>
-    <row r="963"/>
-    <row r="964"/>
-    <row r="965"/>
-    <row r="966"/>
-    <row r="967"/>
-    <row r="968"/>
-    <row r="969"/>
-    <row r="970"/>
-    <row r="971"/>
-    <row r="972"/>
-    <row r="973"/>
-    <row r="974"/>
-    <row r="975"/>
-    <row r="976"/>
-    <row r="977"/>
-    <row r="978"/>
-    <row r="979"/>
-    <row r="980"/>
-    <row r="981"/>
-    <row r="982"/>
-    <row r="983"/>
-    <row r="984"/>
-    <row r="985"/>
-    <row r="986"/>
-    <row r="987"/>
-    <row r="988"/>
-    <row r="989"/>
-    <row r="990"/>
-    <row r="991"/>
-    <row r="992"/>
-    <row r="993"/>
-    <row r="994"/>
-    <row r="995"/>
-    <row r="996"/>
-    <row r="997"/>
-    <row r="998"/>
-    <row r="999"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" verticalDpi="0"/>
